--- a/local_stiffness/data/actually_useful/Position controller only/1698288137_joint_6_2_0.0_data.xlsx
+++ b/local_stiffness/data/actually_useful/Position controller only/1698288137_joint_6_2_0.0_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gal65\masters\STM32_snake\local_stiffness\data\actually_useful\Position controller only\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6011E5-DE40-4D95-A3ED-B2FC2E6C19BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC215B2F-6C31-4E75-B8E5-5E6EFE1A5C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="37425" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>time (s)</t>
   </si>
@@ -44,13 +44,10 @@
     <t>SEA data (rad)</t>
   </si>
   <si>
-    <t>joint 6, open loop torque control, A=pi/8, omega=7pi/12, phi=(-2pi-0.4)/5</t>
+    <t>command</t>
   </si>
   <si>
-    <t>commanded</t>
-  </si>
-  <si>
-    <t>time1</t>
+    <t>joint 6, open loop torque control, A=pi/9, omega=7pi/12, phi=(-2pi-0.4)/5</t>
   </si>
 </sst>
 </file>
@@ -139,10 +136,10 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>SEA data</c:v>
+            <c:v>SEA deflection</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FFC000"/>
               </a:solidFill>
@@ -1163,1879 +1160,13 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>commanded</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Servo position</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$302</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="301"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.39999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.44999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.49999999999999994</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.54999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.70000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.75000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.80000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.8500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.90000000000000024</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.95000000000000029</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.0000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.0500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.1000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.1500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.2000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.2500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.3000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.3500000000000005</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.4000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.4500000000000006</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.5000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.5500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.6000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.6500000000000008</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.7000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.7500000000000009</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.8000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.9500000000000011</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.0500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.1000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.1500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.3499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.3999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.4499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.4999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.5499999999999989</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.5999999999999988</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.6499999999999986</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.6999999999999984</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.7499999999999982</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.8499999999999979</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.8999999999999977</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.9499999999999975</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2.9999999999999973</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3.0499999999999972</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.1499999999999968</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3.1999999999999966</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.2499999999999964</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.2999999999999963</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3.3499999999999961</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>3.3999999999999959</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3.4499999999999957</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3.4999999999999956</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.5499999999999954</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>3.5999999999999952</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>3.649999999999995</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3.6999999999999948</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3.7499999999999947</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>3.7999999999999945</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>3.8499999999999943</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>3.8999999999999941</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3.949999999999994</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3.9999999999999938</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>4.0499999999999936</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4.0999999999999934</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>4.1499999999999932</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>4.1999999999999931</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>4.2499999999999929</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>4.2999999999999927</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>4.3499999999999925</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>4.3999999999999924</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>4.4499999999999922</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4.499999999999992</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4.5499999999999918</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4.5999999999999917</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4.6499999999999915</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4.6999999999999913</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>4.7499999999999911</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>4.7999999999999909</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>4.8499999999999908</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>4.8999999999999906</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>4.9499999999999904</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>4.9999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>5.0499999999999901</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>5.0999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>5.1499999999999897</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>5.1999999999999895</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>5.2499999999999893</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>5.2999999999999892</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>5.349999999999989</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>5.3999999999999888</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>5.4499999999999886</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>5.4999999999999885</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>5.5499999999999883</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>5.5999999999999881</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>5.6499999999999879</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>5.6999999999999877</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>5.7499999999999876</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>5.7999999999999874</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>5.8499999999999872</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>5.899999999999987</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>5.9499999999999869</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>5.9999999999999867</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>6.0499999999999865</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>6.0999999999999863</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>6.1499999999999861</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>6.199999999999986</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>6.2499999999999858</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>6.2999999999999856</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>6.3499999999999854</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>6.3999999999999853</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>6.4499999999999851</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>6.4999999999999849</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>6.5499999999999847</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>6.5999999999999845</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>6.6499999999999844</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>6.6999999999999842</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>6.749999999999984</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>6.7999999999999838</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>6.8499999999999837</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>6.8999999999999835</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>6.9499999999999833</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>6.9999999999999831</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>7.0499999999999829</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>7.0999999999999828</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>7.1499999999999826</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>7.1999999999999824</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>7.2499999999999822</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>7.2999999999999821</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>7.3499999999999819</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>7.3999999999999817</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>7.4499999999999815</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>7.4999999999999813</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>7.5499999999999812</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>7.599999999999981</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>7.6499999999999808</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>7.6999999999999806</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>7.7499999999999805</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>7.7999999999999803</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>7.8499999999999801</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>7.8999999999999799</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>7.9499999999999797</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>7.9999999999999796</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>8.0499999999999794</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>8.0999999999999801</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>8.1499999999999808</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>8.1999999999999815</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>8.2499999999999822</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>8.2999999999999829</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>8.3499999999999837</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>8.3999999999999844</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>8.4499999999999851</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>8.4999999999999858</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>8.5499999999999865</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>8.5999999999999872</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>8.6499999999999879</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>8.6999999999999886</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>8.7499999999999893</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>8.7999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>8.8499999999999908</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>8.8999999999999915</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>8.9499999999999922</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>8.9999999999999929</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>9.0499999999999936</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>9.0999999999999943</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>9.149999999999995</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>9.1999999999999957</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>9.2499999999999964</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>9.2999999999999972</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>9.3499999999999979</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>9.3999999999999986</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>9.4499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>9.5500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>9.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>9.6500000000000021</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>9.7000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>9.7500000000000036</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>9.8000000000000043</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>9.850000000000005</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>9.9000000000000057</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>9.9500000000000064</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>10.000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>10.050000000000008</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>10.100000000000009</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>10.150000000000009</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>10.20000000000001</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>10.250000000000011</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>10.300000000000011</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>10.350000000000012</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>10.400000000000013</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>10.450000000000014</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>10.500000000000014</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>10.550000000000015</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>10.600000000000016</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>10.650000000000016</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>10.700000000000017</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>10.750000000000018</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>10.800000000000018</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>10.850000000000019</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>10.90000000000002</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>10.950000000000021</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>11.000000000000021</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>11.050000000000022</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>11.100000000000023</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>11.150000000000023</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>11.200000000000024</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>11.250000000000025</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>11.300000000000026</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>11.350000000000026</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>11.400000000000027</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>11.450000000000028</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>11.500000000000028</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>11.550000000000029</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>11.60000000000003</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>11.650000000000031</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>11.700000000000031</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>11.750000000000032</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>11.800000000000033</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>11.850000000000033</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>11.900000000000034</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>11.950000000000035</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>12.000000000000036</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>12.050000000000036</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>12.100000000000037</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>12.150000000000038</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>12.200000000000038</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>12.250000000000039</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>12.30000000000004</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>12.350000000000041</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>12.400000000000041</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>12.450000000000042</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>12.500000000000043</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>12.550000000000043</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>12.600000000000044</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>12.650000000000045</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>12.700000000000045</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>12.750000000000046</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>12.800000000000047</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>12.850000000000048</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>12.900000000000048</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>12.950000000000049</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>13.00000000000005</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>13.05000000000005</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>13.100000000000051</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>13.150000000000052</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>13.200000000000053</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>13.250000000000053</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>13.300000000000054</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>13.350000000000055</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>13.400000000000055</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>13.450000000000056</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>13.500000000000057</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>13.550000000000058</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>13.600000000000058</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>13.650000000000059</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>13.70000000000006</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>13.75000000000006</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>13.800000000000061</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>13.850000000000062</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>13.900000000000063</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>13.950000000000063</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>14.000000000000064</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>14.050000000000065</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>14.100000000000065</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>14.150000000000066</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>14.200000000000067</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>14.250000000000068</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>14.300000000000068</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>14.350000000000069</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>14.40000000000007</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>14.45000000000007</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>14.500000000000071</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>14.550000000000072</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>14.600000000000072</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>14.650000000000073</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>14.700000000000074</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>14.750000000000075</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>14.800000000000075</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>14.850000000000076</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>14.900000000000077</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>14.950000000000077</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>15.000000000000078</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$302</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="301"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.8949372417293906E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.7487871412456503E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.14520807237098524</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.19170941934487987</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.23660158725699748</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.27950775822906782</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.32006778453238133</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.35794121161183345</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.39281013580853125</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.42438187279368283</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.45239141431535129</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.4766036526365216</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.496815353992894</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.51285686450550561</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.52459353422901533</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.53192684738241136</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.53479524927516153</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.53317466298771565</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.52707869146942521</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.51655850335750142</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.50170240347542938</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.48263509161600771</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.45951661583067516</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.43254102901104791</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.40193476003911638</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.36795471317841155</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.3308861116595565</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.29104010356081161</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.24875115007947721</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.20437421811660172</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.15828180073999887</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.11086079053534634</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.2509232089970196E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.3632980868460641E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-3.535770347500012E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-8.4051600752395358E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-0.1320399819602005</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.17892004008709572</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.22429827121339632</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.26779377752177819</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.30904146449434006</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.34769510545922738</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.38343024776348905</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.41594693617820577</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.44497223067604763</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.47026249744743254</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-0.49160545392484578</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-0.5088219506497097</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.52176747502508725</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-0.53033336433195455</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-0.5344477178271696</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-0.53407600026713387</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-0.52922133179125708</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-0.51992446173199236</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-0.50626342657127421</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-0.48835289491442191</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-0.466343204979693</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-0.44041910268265161</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-0.41079819090767561</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-0.37772910298317347</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-0.34148941569208063</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-0.30238331933549695</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-0.26073906440659006</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-0.21690620630698756</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-0.17125267123307963</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-0.12416166786072623</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-7.6028470751207236E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-2.7257102478008572E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.1743057675850993E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7.0560709983875147E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.1187860866620519</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.16601439139592769</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.21184919713793918</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.25590577365441969</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.29781431689136872</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.33722305305218769</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.37380119133224288</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.40724170052545039</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.4372638861964887</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.46361574678624967</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.48607608887374831</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.50445638383931102</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.51860235034449886</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.52839524934567728</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.5337528807710884</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.53463027349547421</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.53102006282071079</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.52295255229393867</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.51049545934429985</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.49375334687336525</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.47286674557039476</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.44801097431957931</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.41939466860058283</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.38725802923476177</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.35187080617681377</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.31353003427559428</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.27255754000977411</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.22929724012641065</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.18411225485724</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.13738185994390451</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>8.9498303056341683E-2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>4.0863511326823851E-2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-8.1142823639044521E-3</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-5.7023966029962181E-2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-0.1054549993904238</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-0.15300085988061815</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-0.19926245493933231</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-0.2438514719297262</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-0.28639363757523706</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-0.32653185955127612</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-0.363929223862686</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-0.39827182284743728</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-0.42927139006874188</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>-0.45666771997870781</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>-0.48023085204325544</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-0.49976300099508952</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-0.51510021701248399</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-0.52611376188859693</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>-0.53271118963996467</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>-0.53483712248371484</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-0.53247371567006618</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-0.52564080726838436</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-0.51439575164951123</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-0.49883293806209339</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-0.47908299834390272</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-0.45531171041849916</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-0.42771860678111301</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-0.39653529965390028</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-0.36202353686895794</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>-0.32447300479771368</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>-0.2841988967685608</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>-0.24153926738306086</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>-0.19685219493817452</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>-0.15051277577270528</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>-0.10290997576694638</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>-5.4443365423552305E-2</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>-5.5197659348578954E-3</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>4.3450165610959497E-2</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>9.2055383221640932E-2</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.13988790225699763</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.18654622398855406</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.23163870571745568</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.27478684816239596</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.31562847252374043</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.3538207605560641</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.38904313213120756</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.4209999361380331</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.44942293213188855</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.47407354190319723</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.49474485206585855</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.51126335085604313</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.52349038456296293</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.53132332136656424</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.53469641281306934</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.53358134569727544</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.52798747971919813</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.51796176892020407</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.50358836755808789</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.48498792372931476</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.46231656666765591</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.43576459621967256</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.40555488549738872</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.37194101011603942</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.33520511971977729</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.29565556966142431</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.2536243327155791</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0.20946421255075709</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0.16354588235024603</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0.11625477343903198</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>6.7987840033179092E-2</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>1.9150227267852347E-2</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>-2.9848129527960784E-2</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>-7.859594576487107E-2</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>-0.12668403985199031</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>-0.17370876780359074</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>-0.21927541136397197</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>-0.26300149121112903</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>-0.30451997742872255</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>-0.34348237029813483</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>-0.37956162555092854</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>-0.41245489952759185</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>-0.44188609120013445</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>-0.46760815972119241</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>-0.48940519804649463</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>-0.50709424522502633</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>-0.52052682214480772</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>-0.52959017784347684</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>-0.53420823592233813</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>-0.53434223311982643</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>-0.52999104468429814</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>-0.52119119381502121</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>-0.50801654509211891</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>-0.49057768446876793</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>-0.46902099102989903</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>-0.44352740830891557</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>-0.41431092547580467</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>-0.38161678114531178</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>-0.34571940488213493</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>-0.30692011368182331</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>-0.26554458276276033</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>-0.22194011189901239</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>-0.1764727102400182</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>-0.12952402408669031</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>-8.1488133411698027E-2</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>-3.2768244013442659E-2</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>1.6226696930729572E-2</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>6.5085433503557069E-2</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0.11339785306609623</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0.16075842867945433</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0.20676962303486926</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0.25104522532007562</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0.29321359301282079</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0.33292077139041903</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0.36983346457066563</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0.4036418331456566</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0.43406209492560888</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0.46083890696244328</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0.48374750885879342</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0.50259560937183911</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0.51722500047610342</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>0.52751288533702312</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0.53337290904848678</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0.53475588348249226</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>0.53165020016664499</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>0.52408192772387185</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0.51211459305645191</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0.49584864811107576</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0.47542062670082125</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0.4510019984615532</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0.42279772956245737</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0.39104456225188161</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0.35600902767970832</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>0.3179852086763188</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>0.27729227126703487</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>0.23427178564212159</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0.18928485906971243</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0.14270910481754043</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>9.4935472525874628E-2</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>4.636496663701889E-2</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>-2.5947195736345107E-3</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>-5.1532626111576239E-2</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>-0.10003797579748371</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>-0.14770362226700268</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>-0.19412946749403232</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>-0.23892582015135488</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>-0.28171666661905292</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>-0.3221428271843762</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>-0.35986497094041636</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>-0.39456646407697615</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>-0.42595602765555279</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>-0.4537701825594625</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>-0.47777546109658375</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>-0.49777036669086899</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>-0.51358706521327813</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>-0.52509279375536522</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>-0.53219097502049195</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>-0.53482202797864142</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>-0.5329638679803208</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>-0.52663209213167639</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>-0.5158798483748086</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>-0.50079738937220963</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>-0.48151131493994503</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>-0.45818350938847968</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>-0.43100978269094326</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>-0.40021822688465747</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>-0.36606730150203509</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>-0.32884366410144661</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>-0.28885976410824055</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>-0.24645122016284235</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>-0.20197400299006341</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>-0.15580144743617849</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>-0.10832111875426677</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>-5.9931559441730356E-2</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>-1.1038943936530897E-2</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>3.7946330747896682E-2</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>8.6613089831372322E-2</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>0.13455283210415214</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>0.1813631588225752</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>0.2266511513815587</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>0.27003666941228366</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>0.31115554162135206</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>0.34966262258800784</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>0.38523468986113996</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>0.41757315703828762</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>0.44640658005348227</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>0.47149293563653744</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>0.4926216528187522</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>0.50961538043288579</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>0.52233147577128403</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>0.53066320190659066</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>0.53454062362492205</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>0.53393119445117976</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>0.52884002983910305</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>0.51930986423294523</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>0.50542069236119214</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>0.48728909777324803</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>0.46506727425524652</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-481B-470E-8591-201E926E7B6C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>servo data (rad)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3046,20 +1177,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$171</c:f>
@@ -4079,11 +2196,1881 @@
         </c:dLbls>
         <c:axId val="1181013360"/>
         <c:axId val="1056479728"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>Commanded position</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd" cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:prstDash val="lgDash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$2:$D$302</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="301"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.39999999999999902</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.44999999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.499999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.54999999999999905</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.75</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.85</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.95</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.05</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1.1000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1.1499999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1.2</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1.25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1.3</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1.35</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1.4</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1.45</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1.55</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>1.6</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>1.65</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>1.7</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>1.75</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>1.8</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>1.85</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>1.9</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>1.95</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>2.0499999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>2.1</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>2.15</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>2.2000000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>2.25</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>2.2999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>2.3499999999999899</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>2.3999999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>2.44999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>2.4999999999999898</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>2.5499999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>2.5999999999999899</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>2.6499999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>2.69999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>2.7499999999999898</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>2.7999999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>2.8499999999999899</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>2.8999999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>2.94999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>2.9999999999999898</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>3.0499999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>3.0999999999999899</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>3.1499999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>3.19999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>3.2499999999999898</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>3.2999999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>3.3499999999999899</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>3.3999999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>3.44999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>3.4999999999999898</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>3.5499999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>3.5999999999999899</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>3.6499999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>3.69999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>3.7499999999999898</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>3.7999999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>3.8499999999999899</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>3.8999999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>3.94999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>3.9999999999999898</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>4.0499999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>4.0999999999999899</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>4.1499999999999897</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>4.1999999999999904</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>4.2499999999999902</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>4.2999999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>4.3499999999999899</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>4.3999999999999897</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>4.4499999999999904</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>4.4999999999999902</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>4.5499999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>4.5999999999999899</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>4.6499999999999897</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>4.6999999999999904</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>4.7499999999999902</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>4.7999999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>4.8499999999999899</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>4.8999999999999897</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>4.9499999999999904</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>4.9999999999999902</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>5.0499999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>5.0999999999999899</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>5.1499999999999897</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>5.1999999999999797</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>5.2499999999999796</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>5.2999999999999803</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>5.3499999999999801</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>5.3999999999999799</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>5.4499999999999797</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>5.4999999999999796</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>5.5499999999999803</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>5.5999999999999801</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>5.6499999999999799</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>5.6999999999999797</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>5.7499999999999796</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>5.7999999999999803</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>5.8499999999999801</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>5.8999999999999799</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>5.9499999999999797</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>5.9999999999999796</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>6.0499999999999803</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>6.0999999999999801</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>6.1499999999999799</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>6.1999999999999797</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>6.2499999999999796</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>6.2999999999999803</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>6.3499999999999801</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>6.3999999999999799</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>6.4499999999999797</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>6.4999999999999796</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>6.5499999999999803</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>6.5999999999999801</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>6.6499999999999799</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>6.6999999999999797</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>6.7499999999999796</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>6.7999999999999803</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>6.8499999999999801</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>6.8999999999999799</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>6.9499999999999797</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>6.9999999999999796</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>7.0499999999999803</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>7.0999999999999801</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>7.1499999999999799</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>7.1999999999999797</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>7.2499999999999796</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>7.2999999999999803</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>7.3499999999999801</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>7.3999999999999799</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>7.4499999999999797</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>7.4999999999999796</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>7.5499999999999803</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>7.5999999999999801</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>7.6499999999999799</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>7.6999999999999797</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>7.7499999999999796</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>7.7999999999999803</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>7.8499999999999801</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>7.8999999999999799</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>7.9499999999999797</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>7.9999999999999796</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>8.0499999999999794</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>8.0999999999999801</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>8.1499999999999808</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>8.1999999999999797</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>8.2499999999999805</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>8.2999999999999794</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>8.3499999999999801</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>8.3999999999999808</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>8.4499999999999797</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>8.4999999999999805</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>8.5499999999999794</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>8.5999999999999801</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>8.6499999999999808</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>8.6999999999999797</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>8.7499999999999893</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>8.7999999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>8.8499999999999908</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>8.8999999999999897</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>8.9499999999999904</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>8.9999999999999893</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>9.0499999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>9.0999999999999908</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>9.1499999999999897</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>9.1999999999999904</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>9.2499999999999893</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>9.2999999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>9.3499999999999908</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>9.3999999999999897</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>9.4499999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>9.5</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>9.5500000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>9.6</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>9.65</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>9.6999999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>9.75</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>9.8000000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>9.85</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>9.9</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>9.9499999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>10.050000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>10.1</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>10.15</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>10.199999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>10.25</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>10.3</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>10.35</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>10.4</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>10.45</c:v>
+                      </c:pt>
+                      <c:pt idx="210">
+                        <c:v>10.5</c:v>
+                      </c:pt>
+                      <c:pt idx="211">
+                        <c:v>10.55</c:v>
+                      </c:pt>
+                      <c:pt idx="212">
+                        <c:v>10.6</c:v>
+                      </c:pt>
+                      <c:pt idx="213">
+                        <c:v>10.65</c:v>
+                      </c:pt>
+                      <c:pt idx="214">
+                        <c:v>10.7</c:v>
+                      </c:pt>
+                      <c:pt idx="215">
+                        <c:v>10.75</c:v>
+                      </c:pt>
+                      <c:pt idx="216">
+                        <c:v>10.8</c:v>
+                      </c:pt>
+                      <c:pt idx="217">
+                        <c:v>10.85</c:v>
+                      </c:pt>
+                      <c:pt idx="218">
+                        <c:v>10.9</c:v>
+                      </c:pt>
+                      <c:pt idx="219">
+                        <c:v>10.95</c:v>
+                      </c:pt>
+                      <c:pt idx="220">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="221">
+                        <c:v>11.05</c:v>
+                      </c:pt>
+                      <c:pt idx="222">
+                        <c:v>11.1</c:v>
+                      </c:pt>
+                      <c:pt idx="223">
+                        <c:v>11.15</c:v>
+                      </c:pt>
+                      <c:pt idx="224">
+                        <c:v>11.2</c:v>
+                      </c:pt>
+                      <c:pt idx="225">
+                        <c:v>11.25</c:v>
+                      </c:pt>
+                      <c:pt idx="226">
+                        <c:v>11.3</c:v>
+                      </c:pt>
+                      <c:pt idx="227">
+                        <c:v>11.35</c:v>
+                      </c:pt>
+                      <c:pt idx="228">
+                        <c:v>11.4</c:v>
+                      </c:pt>
+                      <c:pt idx="229">
+                        <c:v>11.45</c:v>
+                      </c:pt>
+                      <c:pt idx="230">
+                        <c:v>11.5</c:v>
+                      </c:pt>
+                      <c:pt idx="231">
+                        <c:v>11.55</c:v>
+                      </c:pt>
+                      <c:pt idx="232">
+                        <c:v>11.6</c:v>
+                      </c:pt>
+                      <c:pt idx="233">
+                        <c:v>11.65</c:v>
+                      </c:pt>
+                      <c:pt idx="234">
+                        <c:v>11.7</c:v>
+                      </c:pt>
+                      <c:pt idx="235">
+                        <c:v>11.75</c:v>
+                      </c:pt>
+                      <c:pt idx="236">
+                        <c:v>11.8</c:v>
+                      </c:pt>
+                      <c:pt idx="237">
+                        <c:v>11.85</c:v>
+                      </c:pt>
+                      <c:pt idx="238">
+                        <c:v>11.9</c:v>
+                      </c:pt>
+                      <c:pt idx="239">
+                        <c:v>11.95</c:v>
+                      </c:pt>
+                      <c:pt idx="240">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="241">
+                        <c:v>12.05</c:v>
+                      </c:pt>
+                      <c:pt idx="242">
+                        <c:v>12.1</c:v>
+                      </c:pt>
+                      <c:pt idx="243">
+                        <c:v>12.15</c:v>
+                      </c:pt>
+                      <c:pt idx="244">
+                        <c:v>12.2</c:v>
+                      </c:pt>
+                      <c:pt idx="245">
+                        <c:v>12.25</c:v>
+                      </c:pt>
+                      <c:pt idx="246">
+                        <c:v>12.3</c:v>
+                      </c:pt>
+                      <c:pt idx="247">
+                        <c:v>12.35</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>12.4</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>12.45</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>12.5</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>12.55</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>12.6</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>12.65</c:v>
+                      </c:pt>
+                      <c:pt idx="254">
+                        <c:v>12.7</c:v>
+                      </c:pt>
+                      <c:pt idx="255">
+                        <c:v>12.75</c:v>
+                      </c:pt>
+                      <c:pt idx="256">
+                        <c:v>12.8</c:v>
+                      </c:pt>
+                      <c:pt idx="257">
+                        <c:v>12.85</c:v>
+                      </c:pt>
+                      <c:pt idx="258">
+                        <c:v>12.9</c:v>
+                      </c:pt>
+                      <c:pt idx="259">
+                        <c:v>12.95</c:v>
+                      </c:pt>
+                      <c:pt idx="260">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="261">
+                        <c:v>13.05</c:v>
+                      </c:pt>
+                      <c:pt idx="262">
+                        <c:v>13.1</c:v>
+                      </c:pt>
+                      <c:pt idx="263">
+                        <c:v>13.15</c:v>
+                      </c:pt>
+                      <c:pt idx="264">
+                        <c:v>13.2</c:v>
+                      </c:pt>
+                      <c:pt idx="265">
+                        <c:v>13.25</c:v>
+                      </c:pt>
+                      <c:pt idx="266">
+                        <c:v>13.3</c:v>
+                      </c:pt>
+                      <c:pt idx="267">
+                        <c:v>13.35</c:v>
+                      </c:pt>
+                      <c:pt idx="268">
+                        <c:v>13.4</c:v>
+                      </c:pt>
+                      <c:pt idx="269">
+                        <c:v>13.45</c:v>
+                      </c:pt>
+                      <c:pt idx="270">
+                        <c:v>13.5</c:v>
+                      </c:pt>
+                      <c:pt idx="271">
+                        <c:v>13.55</c:v>
+                      </c:pt>
+                      <c:pt idx="272">
+                        <c:v>13.6</c:v>
+                      </c:pt>
+                      <c:pt idx="273">
+                        <c:v>13.65</c:v>
+                      </c:pt>
+                      <c:pt idx="274">
+                        <c:v>13.7</c:v>
+                      </c:pt>
+                      <c:pt idx="275">
+                        <c:v>13.75</c:v>
+                      </c:pt>
+                      <c:pt idx="276">
+                        <c:v>13.8</c:v>
+                      </c:pt>
+                      <c:pt idx="277">
+                        <c:v>13.85</c:v>
+                      </c:pt>
+                      <c:pt idx="278">
+                        <c:v>13.9</c:v>
+                      </c:pt>
+                      <c:pt idx="279">
+                        <c:v>13.95</c:v>
+                      </c:pt>
+                      <c:pt idx="280">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="281">
+                        <c:v>14.05</c:v>
+                      </c:pt>
+                      <c:pt idx="282">
+                        <c:v>14.1</c:v>
+                      </c:pt>
+                      <c:pt idx="283">
+                        <c:v>14.15</c:v>
+                      </c:pt>
+                      <c:pt idx="284">
+                        <c:v>14.2</c:v>
+                      </c:pt>
+                      <c:pt idx="285">
+                        <c:v>14.25</c:v>
+                      </c:pt>
+                      <c:pt idx="286">
+                        <c:v>14.3</c:v>
+                      </c:pt>
+                      <c:pt idx="287">
+                        <c:v>14.35</c:v>
+                      </c:pt>
+                      <c:pt idx="288">
+                        <c:v>14.4</c:v>
+                      </c:pt>
+                      <c:pt idx="289">
+                        <c:v>14.45</c:v>
+                      </c:pt>
+                      <c:pt idx="290">
+                        <c:v>14.5</c:v>
+                      </c:pt>
+                      <c:pt idx="291">
+                        <c:v>14.55</c:v>
+                      </c:pt>
+                      <c:pt idx="292">
+                        <c:v>14.6</c:v>
+                      </c:pt>
+                      <c:pt idx="293">
+                        <c:v>14.65</c:v>
+                      </c:pt>
+                      <c:pt idx="294">
+                        <c:v>14.7</c:v>
+                      </c:pt>
+                      <c:pt idx="295">
+                        <c:v>14.75</c:v>
+                      </c:pt>
+                      <c:pt idx="296">
+                        <c:v>14.8</c:v>
+                      </c:pt>
+                      <c:pt idx="297">
+                        <c:v>14.85</c:v>
+                      </c:pt>
+                      <c:pt idx="298">
+                        <c:v>14.9</c:v>
+                      </c:pt>
+                      <c:pt idx="299">
+                        <c:v>14.95</c:v>
+                      </c:pt>
+                      <c:pt idx="300">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$2:$E$302</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="301"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.3000000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.6999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.121</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.16200000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.20499999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.246</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.28599999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.32400000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.36199999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.39500000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.42699999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.45500000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.47899999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.499</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.51500000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.52400000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.53</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.53</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.52300000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.51200000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.49399999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.47299999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.44900000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.42</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.38900000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.35299999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.316</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.27900000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.23799999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.19700000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.154</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.113</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>6.7000000000000004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2.3E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>-2.1000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>-6.6000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>-0.108</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>-0.151</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>-0.193</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>-0.23400000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>-0.27600000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>-0.313</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>-0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>-0.38500000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>-0.41899999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>-0.44800000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>-0.47199999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>-0.49299999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>-0.51200000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>-0.52300000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>-0.52800000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>-0.53</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>-0.52600000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>-0.51400000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>-0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>-0.48</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>-0.45500000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>-0.42799999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>-0.39900000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>-0.36499999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>-0.32700000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>-0.28899999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>-0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>-0.20699999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>-0.16600000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>-0.123</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>-0.08</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>-3.5000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>8.0000000000000002E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>5.0999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>9.5000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0.13800000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0.18099999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0.222</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0.26300000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0.30199999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0.34100000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0.375</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0.40799999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0.438</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0.46700000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0.48799999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>0.50600000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0.51800000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0.52800000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0.53</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0.52800000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>0.51900000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0.50600000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>0.48799999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0.46500000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0.437</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0.40600000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0.374</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0.33700000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0.30099999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>0.26</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>0.22</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>0.17799999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>0.13500000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>9.2999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>4.8000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>6.0000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>-3.9E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>-8.4000000000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>-0.126</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>-0.17</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>-0.21099999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>-0.252</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>-0.29099999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>-0.33</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>-0.36599999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>-0.40100000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>-0.43</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>-0.45700000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>-0.48199999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>-0.502</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>-0.51700000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>-0.52600000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>-0.53</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>-0.52800000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>-0.52300000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>-0.50900000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>-0.49299999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>-0.47199999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>-0.44500000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>-0.41499999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>-0.38400000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>-0.34899999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>-0.312</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>-0.27200000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>-0.23300000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>-0.191</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>-0.14799999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>-0.105</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>-6.2E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>-1.7999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>2.7E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>7.0000000000000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>0.113</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>0.157</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>0.23899999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>0.28199999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>0.31900000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>0.35699999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>0.39</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>0.42199999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>0.45</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>0.47499999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>0.496</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>0.51400000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>0.52500000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>0.53</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>0.53</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>0.52400000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>0.51300000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>0.498</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>0.47699999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>0.45200000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>0.42399999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>0.39400000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>0.35899999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>0.32200000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>0.28499999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>0.24399999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>0.20300000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>0.16200000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>0.11799999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>7.4999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>-1.2999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>-5.7000000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>-0.10299999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>-0.14399999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>-0.188</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>-0.22800000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>-0.26900000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>-0.309</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>-0.34499999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>-0.38100000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>-0.41399999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>-0.44400000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>-0.46800000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>-0.49099999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>-0.50800000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>-0.52100000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>-0.52900000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>-0.53</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>-0.52600000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>-0.51700000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>-0.502</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>-0.48399999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>-0.46100000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>-0.434</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>-0.40100000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>-0.36899999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>-0.33300000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>-0.29399999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>-0.25600000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>-0.21299999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>-0.17299999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>-0.13</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>-8.5999999999999993E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>-4.2999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>1E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="210">
+                        <c:v>4.4999999999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="211">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                      <c:pt idx="212">
+                        <c:v>0.13300000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="213">
+                        <c:v>0.17499999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="214">
+                        <c:v>0.217</c:v>
+                      </c:pt>
+                      <c:pt idx="215">
+                        <c:v>0.25700000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="216">
+                        <c:v>0.29799999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="217">
+                        <c:v>0.33400000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="218">
+                        <c:v>0.371</c:v>
+                      </c:pt>
+                      <c:pt idx="219">
+                        <c:v>0.40600000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="220">
+                        <c:v>0.435</c:v>
+                      </c:pt>
+                      <c:pt idx="221">
+                        <c:v>0.46</c:v>
+                      </c:pt>
+                      <c:pt idx="222">
+                        <c:v>0.48599999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="223">
+                        <c:v>0.504</c:v>
+                      </c:pt>
+                      <c:pt idx="224">
+                        <c:v>0.51900000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="225">
+                        <c:v>0.52600000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="226">
+                        <c:v>0.53</c:v>
+                      </c:pt>
+                      <c:pt idx="227">
+                        <c:v>0.52900000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="228">
+                        <c:v>0.52100000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="229">
+                        <c:v>0.50800000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="230">
+                        <c:v>0.49</c:v>
+                      </c:pt>
+                      <c:pt idx="231">
+                        <c:v>0.46800000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="232">
+                        <c:v>0.44</c:v>
+                      </c:pt>
+                      <c:pt idx="233">
+                        <c:v>0.41099999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="234">
+                        <c:v>0.379</c:v>
+                      </c:pt>
+                      <c:pt idx="235">
+                        <c:v>0.34300000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="236">
+                        <c:v>0.30499999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="237">
+                        <c:v>0.26600000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="238">
+                        <c:v>0.22700000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="239">
+                        <c:v>0.185</c:v>
+                      </c:pt>
+                      <c:pt idx="240">
+                        <c:v>0.14299999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="241">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="242">
+                        <c:v>5.5E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="243">
+                        <c:v>1.2E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="244">
+                        <c:v>-3.3000000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="245">
+                        <c:v>-7.6999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="246">
+                        <c:v>-0.121</c:v>
+                      </c:pt>
+                      <c:pt idx="247">
+                        <c:v>-0.16200000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>-0.20499999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>-0.246</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>-0.28599999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>-0.32400000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>-0.36199999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>-0.39500000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="254">
+                        <c:v>-0.42699999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="255">
+                        <c:v>-0.45500000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="256">
+                        <c:v>-0.47899999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="257">
+                        <c:v>-0.499</c:v>
+                      </c:pt>
+                      <c:pt idx="258">
+                        <c:v>-0.51500000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="259">
+                        <c:v>-0.52400000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="260">
+                        <c:v>-0.53</c:v>
+                      </c:pt>
+                      <c:pt idx="261">
+                        <c:v>-0.53</c:v>
+                      </c:pt>
+                      <c:pt idx="262">
+                        <c:v>-0.52300000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="263">
+                        <c:v>-0.51200000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="264">
+                        <c:v>-0.49399999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="265">
+                        <c:v>-0.47299999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="266">
+                        <c:v>-0.44900000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="267">
+                        <c:v>-0.42</c:v>
+                      </c:pt>
+                      <c:pt idx="268">
+                        <c:v>-0.38900000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="269">
+                        <c:v>-0.35299999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="270">
+                        <c:v>-0.316</c:v>
+                      </c:pt>
+                      <c:pt idx="271">
+                        <c:v>-0.27900000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="272">
+                        <c:v>-0.23799999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="273">
+                        <c:v>-0.19700000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="274">
+                        <c:v>-0.154</c:v>
+                      </c:pt>
+                      <c:pt idx="275">
+                        <c:v>-0.113</c:v>
+                      </c:pt>
+                      <c:pt idx="276">
+                        <c:v>-6.7000000000000004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="277">
+                        <c:v>-2.3E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="278">
+                        <c:v>2.1000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="279">
+                        <c:v>6.6000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="280">
+                        <c:v>0.108</c:v>
+                      </c:pt>
+                      <c:pt idx="281">
+                        <c:v>0.151</c:v>
+                      </c:pt>
+                      <c:pt idx="282">
+                        <c:v>0.193</c:v>
+                      </c:pt>
+                      <c:pt idx="283">
+                        <c:v>0.23400000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="284">
+                        <c:v>0.27600000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="285">
+                        <c:v>0.313</c:v>
+                      </c:pt>
+                      <c:pt idx="286">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="287">
+                        <c:v>0.38500000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="288">
+                        <c:v>0.41899999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="289">
+                        <c:v>0.44800000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="290">
+                        <c:v>0.47199999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="291">
+                        <c:v>0.49299999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="292">
+                        <c:v>0.51200000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="293">
+                        <c:v>0.52300000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="294">
+                        <c:v>0.52800000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="295">
+                        <c:v>0.53</c:v>
+                      </c:pt>
+                      <c:pt idx="296">
+                        <c:v>0.52600000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="297">
+                        <c:v>0.51400000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="298">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="299">
+                        <c:v>0.48</c:v>
+                      </c:pt>
+                      <c:pt idx="300">
+                        <c:v>0.45500000000000002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-481B-470E-8591-201E926E7B6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1181013360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4101,6 +4088,212 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1100">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48944373478738884"/>
+              <c:y val="0.93551912568306017"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1056479728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1056479728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1100">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Position</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1100" baseline="0">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> (rad)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1100">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.6852300242130755E-3"/>
+              <c:y val="0.37083749777179492"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4123,78 +4316,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1056479728"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1056479728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -4212,6 +4343,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4228,12 +4390,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4817,15 +4974,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5140,16 +5297,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q302"/>
+  <dimension ref="A1:Q305"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN13" sqref="AN13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5164,10 +5320,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
@@ -5187,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -5201,7 +5357,6 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <f>D2+15/300</f>
         <v>0.05</v>
       </c>
       <c r="E3">
@@ -5219,7 +5374,6 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D67" si="0">D3+15/300</f>
         <v>0.1</v>
       </c>
       <c r="E4">
@@ -5237,11 +5391,9 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
+        <v>0.15</v>
       </c>
       <c r="E5">
-        <f>0.534838696 * SIN(D2*1.833)</f>
         <v>0</v>
       </c>
     </row>
@@ -5256,12 +5408,10 @@
         <v>-5.2168083136534003E-2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E69" si="1">0.534838696 * SIN(D3*1.833)</f>
-        <v>4.8949372417293906E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -5275,12 +5425,10 @@
         <v>-5.8305504682008E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>9.7487871412456503E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -5294,12 +5442,10 @@
         <v>-5.3702438522901901E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.14520807237098524</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -5313,12 +5459,10 @@
         <v>-6.7511637000220198E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.19170941934487987</v>
+        <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -5332,12 +5476,10 @@
         <v>-6.5977281613851496E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0.39999999999999997</v>
+        <v>0.39999999999999902</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0.23660158725699748</v>
+        <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -5351,12 +5493,10 @@
         <v>-7.3649058545695006E-2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.44999999999999901</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>0.27950775822906782</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -5370,12 +5510,10 @@
         <v>-7.5183413932063695E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.49999999999999994</v>
+        <v>0.499999999999999</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>0.32006778453238133</v>
+        <v>0.28599999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -5389,12 +5527,10 @@
         <v>-7.3649058545695006E-2</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0.54999999999999993</v>
+        <v>0.54999999999999905</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>0.35794121161183345</v>
+        <v>0.32400000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -5408,12 +5544,10 @@
         <v>-6.4442926227482794E-2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
-        <v>0.39281013580853125</v>
+        <v>0.36199999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -5427,12 +5561,10 @@
         <v>-6.1374215454746299E-2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
-        <v>0.42438187279368283</v>
+        <v>0.39500000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -5446,12 +5578,10 @@
         <v>-3.5290173886479197E-2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
-        <v>0.45239141431535129</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -5465,12 +5595,10 @@
         <v>-3.3755818500110502E-2</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0.75000000000000011</v>
+        <v>0.75</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
-        <v>0.4766036526365216</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5484,12 +5612,10 @@
         <v>-2.6084041568267002E-2</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0.80000000000000016</v>
+        <v>0.8</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>0.496815353992894</v>
+        <v>0.47899999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -5503,12 +5629,10 @@
         <v>-1.3809198477317401E-2</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0.8500000000000002</v>
+        <v>0.85</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
-        <v>0.51285686450550561</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -5522,12 +5646,10 @@
         <v>-4.6030661591061001E-3</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0.90000000000000024</v>
+        <v>0.9</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
-        <v>0.52459353422901533</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5541,12 +5663,10 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0.95000000000000029</v>
+        <v>0.95</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
-        <v>0.53192684738241136</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -5560,12 +5680,10 @@
         <v>1.8412264636423599E-2</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
-        <v>0.53479524927516153</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -5579,12 +5697,10 @@
         <v>2.3015330795529601E-2</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>1.0500000000000003</v>
+        <v>1.05</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
-        <v>0.53317466298771565</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -5598,12 +5714,10 @@
         <v>3.8358884659215997E-2</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000003</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
-        <v>0.52707869146942521</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -5617,12 +5731,10 @@
         <v>6.5977281613851496E-2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>1.1500000000000004</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
-        <v>0.51655850335750142</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -5636,12 +5748,10 @@
         <v>7.6717769318431994E-2</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>1.2000000000000004</v>
+        <v>1.2</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
-        <v>0.50170240347542938</v>
+        <v>0.49399999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -5655,12 +5765,10 @@
         <v>7.8252124704800696E-2</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
-        <v>1.2500000000000004</v>
+        <v>1.25</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
-        <v>0.48263509161600771</v>
+        <v>0.47299999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -5674,12 +5782,10 @@
         <v>7.6717769318431994E-2</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>1.3000000000000005</v>
+        <v>1.3</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
-        <v>0.45951661583067516</v>
+        <v>0.44900000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -5693,12 +5799,10 @@
         <v>6.7511637000220198E-2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>1.3500000000000005</v>
+        <v>1.35</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
-        <v>0.43254102901104791</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -5712,12 +5816,10 @@
         <v>7.5183413932063403E-2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>1.4000000000000006</v>
+        <v>1.4</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
-        <v>0.40193476003911638</v>
+        <v>0.38900000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -5731,12 +5833,10 @@
         <v>7.3649058545694701E-2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>1.4500000000000006</v>
+        <v>1.45</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
-        <v>0.36795471317841155</v>
+        <v>0.35299999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -5750,12 +5850,10 @@
         <v>7.3649058545694701E-2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>1.5000000000000007</v>
+        <v>1.5</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
-        <v>0.3308861116595565</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -5769,12 +5867,10 @@
         <v>7.2114703159326096E-2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>1.5500000000000007</v>
+        <v>1.55</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
-        <v>0.29104010356081161</v>
+        <v>0.27900000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -5788,12 +5884,10 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
-        <v>1.6000000000000008</v>
+        <v>1.6</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
-        <v>0.24875115007947721</v>
+        <v>0.23799999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -5807,12 +5901,10 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
-        <v>1.6500000000000008</v>
+        <v>1.65</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
-        <v>0.20437421811660172</v>
+        <v>0.19700000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -5826,12 +5918,10 @@
         <v>-2.91527523410035E-2</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
-        <v>1.7000000000000008</v>
+        <v>1.7</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
-        <v>0.15828180073999887</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -5845,12 +5935,10 @@
         <v>-3.2221463113741799E-2</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
-        <v>1.7500000000000009</v>
+        <v>1.75</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
-        <v>0.11086079053534634</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -5864,12 +5952,10 @@
         <v>-2.76183969546357E-2</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
-        <v>1.8000000000000009</v>
+        <v>1.8</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
-        <v>6.2509232089970196E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -5883,12 +5969,10 @@
         <v>-2.45496861818983E-2</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
-        <v>1.850000000000001</v>
+        <v>1.85</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
-        <v>1.3632980868460641E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -5902,12 +5986,10 @@
         <v>-3.3755818500110502E-2</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
-        <v>1.900000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
-        <v>-3.535770347500012E-2</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -5921,12 +6003,10 @@
         <v>-3.5290173886479197E-2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
-        <v>1.9500000000000011</v>
+        <v>1.95</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
-        <v>-8.4051600752395358E-2</v>
+        <v>-6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -5940,12 +6020,10 @@
         <v>-3.8358884659215699E-2</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
-        <v>2.0000000000000009</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
-        <v>-0.1320399819602005</v>
+        <v>-0.108</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -5959,12 +6037,10 @@
         <v>-5.5236793909270603E-2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
-        <v>2.0500000000000007</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
-        <v>-0.17892004008709572</v>
+        <v>-0.151</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -5978,12 +6054,10 @@
         <v>-6.1374215454746299E-2</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
-        <v>2.1000000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
-        <v>-0.22429827121339632</v>
+        <v>-0.193</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -5997,12 +6071,10 @@
         <v>-6.2908570841114106E-2</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
-        <v>2.1500000000000004</v>
+        <v>2.15</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
-        <v>-0.26779377752177819</v>
+        <v>-0.23400000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -6016,12 +6088,10 @@
         <v>-6.5977281613851496E-2</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
-        <v>-0.30904146449434006</v>
+        <v>-0.27600000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -6035,12 +6105,10 @@
         <v>-7.2114703159326304E-2</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
-        <v>-0.34769510545922738</v>
+        <v>-0.313</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -6054,12 +6122,10 @@
         <v>-7.05803477729567E-2</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
-        <v>-0.38343024776348905</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -6073,12 +6139,10 @@
         <v>-6.5977281613851496E-2</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
-        <v>2.3499999999999996</v>
+        <v>2.3499999999999899</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
-        <v>-0.41594693617820577</v>
+        <v>-0.38500000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -6092,12 +6156,10 @@
         <v>-6.4442926227482794E-2</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
-        <v>2.3999999999999995</v>
+        <v>2.3999999999999901</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
-        <v>-0.44497223067604763</v>
+        <v>-0.41899999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -6111,12 +6173,10 @@
         <v>-6.1374215454746299E-2</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
-        <v>2.4499999999999993</v>
+        <v>2.44999999999999</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
-        <v>-0.47026249744743254</v>
+        <v>-0.44800000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -6130,12 +6190,10 @@
         <v>-4.2961950818321798E-2</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
-        <v>2.4999999999999991</v>
+        <v>2.4999999999999898</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
-        <v>-0.49160545392484578</v>
+        <v>-0.47199999999999998</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -6149,12 +6207,10 @@
         <v>-1.84122646364244E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
-        <v>2.5499999999999989</v>
+        <v>2.5499999999999901</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
-        <v>-0.5088219506497097</v>
+        <v>-0.49299999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -6168,12 +6224,10 @@
         <v>-6.1374215454748004E-3</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
-        <v>2.5999999999999988</v>
+        <v>2.5999999999999899</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
-        <v>-0.52176747502508725</v>
+        <v>-0.51200000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -6187,12 +6241,10 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
-        <v>2.6499999999999986</v>
+        <v>2.6499999999999901</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
-        <v>-0.53033336433195455</v>
+        <v>-0.52300000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -6206,12 +6258,10 @@
         <v>1.6877909250055001E-2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
-        <v>2.6999999999999984</v>
+        <v>2.69999999999999</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
-        <v>-0.5344477178271696</v>
+        <v>-0.52800000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -6225,12 +6275,10 @@
         <v>2.3015330795529601E-2</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
-        <v>2.7499999999999982</v>
+        <v>2.7499999999999898</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
-        <v>-0.53407600026713387</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -6244,12 +6292,10 @@
         <v>2.7618396954635499E-2</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
-        <v>2.799999999999998</v>
+        <v>2.7999999999999901</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
-        <v>-0.52922133179125708</v>
+        <v>-0.52600000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -6263,12 +6309,10 @@
         <v>3.0687107727372799E-2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
-        <v>2.8499999999999979</v>
+        <v>2.8499999999999899</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
-        <v>-0.51992446173199236</v>
+        <v>-0.51400000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -6282,12 +6326,10 @@
         <v>5.06337277501651E-2</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
-        <v>2.8999999999999977</v>
+        <v>2.8999999999999901</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
-        <v>-0.50626342657127421</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -6301,12 +6343,10 @@
         <v>7.3649058545694701E-2</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
-        <v>2.9499999999999975</v>
+        <v>2.94999999999999</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
-        <v>-0.48835289491442191</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -6320,12 +6360,10 @@
         <v>7.8252124704800696E-2</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
-        <v>2.9999999999999973</v>
+        <v>2.9999999999999898</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
-        <v>-0.466343204979693</v>
+        <v>-0.45500000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -6339,12 +6377,10 @@
         <v>7.5183413932063403E-2</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
-        <v>3.0499999999999972</v>
+        <v>3.0499999999999901</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
-        <v>-0.44041910268265161</v>
+        <v>-0.42799999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -6358,12 +6394,10 @@
         <v>7.5183413932063403E-2</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
-        <v>3.099999999999997</v>
+        <v>3.0999999999999899</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
-        <v>-0.41079819090767561</v>
+        <v>-0.39900000000000002</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -6377,12 +6411,10 @@
         <v>7.0580347772957394E-2</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
-        <v>3.1499999999999968</v>
+        <v>3.1499999999999901</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
-        <v>-0.37772910298317347</v>
+        <v>-0.36499999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -6396,12 +6428,10 @@
         <v>7.5183413932063403E-2</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
-        <v>3.1999999999999966</v>
+        <v>3.19999999999999</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
-        <v>-0.34148941569208063</v>
+        <v>-0.32700000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -6415,12 +6445,10 @@
         <v>7.5183413932063403E-2</v>
       </c>
       <c r="D67">
-        <f t="shared" si="0"/>
-        <v>3.2499999999999964</v>
+        <v>3.2499999999999898</v>
       </c>
       <c r="E67">
-        <f t="shared" si="1"/>
-        <v>-0.30238331933549695</v>
+        <v>-0.28899999999999998</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -6434,12 +6462,10 @@
         <v>7.5183413932063403E-2</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D131" si="2">D67+15/300</f>
-        <v>3.2999999999999963</v>
+        <v>3.2999999999999901</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
-        <v>-0.26073906440659006</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -6453,12 +6479,10 @@
         <v>7.3649058545694701E-2</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
-        <v>3.3499999999999961</v>
+        <v>3.3499999999999899</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
-        <v>-0.21690620630698756</v>
+        <v>-0.20699999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -6472,12 +6496,10 @@
         <v>6.7511637000220198E-2</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
-        <v>3.3999999999999959</v>
+        <v>3.3999999999999901</v>
       </c>
       <c r="E70">
-        <f t="shared" ref="E70:E133" si="3">0.534838696 * SIN(D67*1.833)</f>
-        <v>-0.17125267123307963</v>
+        <v>-0.16600000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -6491,12 +6513,10 @@
         <v>4.2961950818321902E-2</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
-        <v>3.4499999999999957</v>
+        <v>3.44999999999999</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
-        <v>-0.12416166786072623</v>
+        <v>-0.123</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -6510,12 +6530,10 @@
         <v>1.0740487704580399E-2</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
-        <v>3.4999999999999956</v>
+        <v>3.4999999999999898</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
-        <v>-7.6028470751207236E-2</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -6529,12 +6547,10 @@
         <v>-3.3755818500110502E-2</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
-        <v>3.5499999999999954</v>
+        <v>3.5499999999999901</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
-        <v>-2.7257102478008572E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -6548,12 +6564,10 @@
         <v>-2.91527523410035E-2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="2"/>
-        <v>3.5999999999999952</v>
+        <v>3.5999999999999899</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
-        <v>2.1743057675850993E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -6567,12 +6581,10 @@
         <v>-3.6824529272846997E-2</v>
       </c>
       <c r="D75">
-        <f t="shared" si="2"/>
-        <v>3.649999999999995</v>
+        <v>3.6499999999999901</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
-        <v>7.0560709983875147E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -6586,12 +6598,10 @@
         <v>-3.6824529272846997E-2</v>
       </c>
       <c r="D76">
-        <f t="shared" si="2"/>
-        <v>3.6999999999999948</v>
+        <v>3.69999999999999</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
-        <v>0.1187860866620519</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -6605,12 +6615,10 @@
         <v>-4.44963062046905E-2</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
-        <v>3.7499999999999947</v>
+        <v>3.7499999999999898</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
-        <v>0.16601439139592769</v>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -6624,12 +6632,10 @@
         <v>-5.5236793909270603E-2</v>
       </c>
       <c r="D78">
-        <f t="shared" si="2"/>
-        <v>3.7999999999999945</v>
+        <v>3.7999999999999901</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
-        <v>0.21184919713793918</v>
+        <v>0.18099999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -6643,12 +6649,10 @@
         <v>-5.9839860068377597E-2</v>
       </c>
       <c r="D79">
-        <f t="shared" si="2"/>
-        <v>3.8499999999999943</v>
+        <v>3.8499999999999899</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
-        <v>0.25590577365441969</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -6662,12 +6666,10 @@
         <v>-6.4442926227482794E-2</v>
       </c>
       <c r="D80">
-        <f t="shared" si="2"/>
-        <v>3.8999999999999941</v>
+        <v>3.8999999999999901</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
-        <v>0.29781431689136872</v>
+        <v>0.26300000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -6681,12 +6683,10 @@
         <v>-6.2908570841114106E-2</v>
       </c>
       <c r="D81">
-        <f t="shared" si="2"/>
-        <v>3.949999999999994</v>
+        <v>3.94999999999999</v>
       </c>
       <c r="E81">
-        <f t="shared" si="3"/>
-        <v>0.33722305305218769</v>
+        <v>0.30199999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -6700,12 +6700,10 @@
         <v>-6.5977281613851496E-2</v>
       </c>
       <c r="D82">
-        <f t="shared" si="2"/>
-        <v>3.9999999999999938</v>
+        <v>3.9999999999999898</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
-        <v>0.37380119133224288</v>
+        <v>0.34100000000000003</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -6719,12 +6717,10 @@
         <v>-7.3649058545695006E-2</v>
       </c>
       <c r="D83">
-        <f t="shared" si="2"/>
-        <v>4.0499999999999936</v>
+        <v>4.0499999999999901</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
-        <v>0.40724170052545039</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -6738,12 +6734,10 @@
         <v>-7.3649058545695006E-2</v>
       </c>
       <c r="D84">
-        <f t="shared" si="2"/>
-        <v>4.0999999999999934</v>
+        <v>4.0999999999999899</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
-        <v>0.4372638861964887</v>
+        <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -6757,12 +6751,10 @@
         <v>-7.2114703159326304E-2</v>
       </c>
       <c r="D85">
-        <f t="shared" si="2"/>
-        <v>4.1499999999999932</v>
+        <v>4.1499999999999897</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
-        <v>0.46361574678624967</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -6776,12 +6768,10 @@
         <v>-6.4442926227482794E-2</v>
       </c>
       <c r="D86">
-        <f t="shared" si="2"/>
-        <v>4.1999999999999931</v>
+        <v>4.1999999999999904</v>
       </c>
       <c r="E86">
-        <f t="shared" si="3"/>
-        <v>0.48607608887374831</v>
+        <v>0.46700000000000003</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -6795,12 +6785,10 @@
         <v>-4.6030661591059202E-2</v>
       </c>
       <c r="D87">
-        <f t="shared" si="2"/>
-        <v>4.2499999999999929</v>
+        <v>4.2499999999999902</v>
       </c>
       <c r="E87">
-        <f t="shared" si="3"/>
-        <v>0.50445638383931102</v>
+        <v>0.48799999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -6814,12 +6802,10 @@
         <v>-3.3755818500110502E-2</v>
       </c>
       <c r="D88">
-        <f t="shared" si="2"/>
-        <v>4.2999999999999927</v>
+        <v>4.2999999999999901</v>
       </c>
       <c r="E88">
-        <f t="shared" si="3"/>
-        <v>0.51860235034449886</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -6833,12 +6819,10 @@
         <v>-3.2221463113741799E-2</v>
       </c>
       <c r="D89">
-        <f t="shared" si="2"/>
-        <v>4.3499999999999925</v>
+        <v>4.3499999999999899</v>
       </c>
       <c r="E89">
-        <f t="shared" si="3"/>
-        <v>0.52839524934567728</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -6852,12 +6836,10 @@
         <v>-1.0740487704580901E-2</v>
       </c>
       <c r="D90">
-        <f t="shared" si="2"/>
-        <v>4.3999999999999924</v>
+        <v>4.3999999999999897</v>
       </c>
       <c r="E90">
-        <f t="shared" si="3"/>
-        <v>0.5337528807710884</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -6871,12 +6853,10 @@
         <v>-1.5343553863687001E-3</v>
       </c>
       <c r="D91">
-        <f t="shared" si="2"/>
-        <v>4.4499999999999922</v>
+        <v>4.4499999999999904</v>
       </c>
       <c r="E91">
-        <f t="shared" si="3"/>
-        <v>0.53463027349547421</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -6890,12 +6870,10 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <f t="shared" si="2"/>
-        <v>4.499999999999992</v>
+        <v>4.4999999999999902</v>
       </c>
       <c r="E92">
-        <f t="shared" si="3"/>
-        <v>0.53102006282071079</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -6909,12 +6887,10 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <f t="shared" si="2"/>
-        <v>4.5499999999999918</v>
+        <v>4.5499999999999901</v>
       </c>
       <c r="E93">
-        <f t="shared" si="3"/>
-        <v>0.52295255229393867</v>
+        <v>0.51900000000000002</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -6928,12 +6904,10 @@
         <v>2.6084041568266901E-2</v>
       </c>
       <c r="D94">
-        <f t="shared" si="2"/>
-        <v>4.5999999999999917</v>
+        <v>4.5999999999999899</v>
       </c>
       <c r="E94">
-        <f t="shared" si="3"/>
-        <v>0.51049545934429985</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -6947,12 +6921,10 @@
         <v>2.7618396954635499E-2</v>
       </c>
       <c r="D95">
-        <f t="shared" si="2"/>
-        <v>4.6499999999999915</v>
+        <v>4.6499999999999897</v>
       </c>
       <c r="E95">
-        <f t="shared" si="3"/>
-        <v>0.49375334687336525</v>
+        <v>0.48799999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -6966,12 +6938,10 @@
         <v>4.4496306204690597E-2</v>
       </c>
       <c r="D96">
-        <f t="shared" si="2"/>
-        <v>4.6999999999999913</v>
+        <v>4.6999999999999904</v>
       </c>
       <c r="E96">
-        <f t="shared" si="3"/>
-        <v>0.47286674557039476</v>
+        <v>0.46500000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -6985,12 +6955,10 @@
         <v>7.0580347772957394E-2</v>
       </c>
       <c r="D97">
-        <f t="shared" si="2"/>
-        <v>4.7499999999999911</v>
+        <v>4.7499999999999902</v>
       </c>
       <c r="E97">
-        <f t="shared" si="3"/>
-        <v>0.44801097431957931</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -7004,12 +6972,10 @@
         <v>7.8252124704800696E-2</v>
       </c>
       <c r="D98">
-        <f t="shared" si="2"/>
-        <v>4.7999999999999909</v>
+        <v>4.7999999999999901</v>
       </c>
       <c r="E98">
-        <f t="shared" si="3"/>
-        <v>0.41939466860058283</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -7023,12 +6989,10 @@
         <v>7.6717769318431994E-2</v>
       </c>
       <c r="D99">
-        <f t="shared" si="2"/>
-        <v>4.8499999999999908</v>
+        <v>4.8499999999999899</v>
       </c>
       <c r="E99">
-        <f t="shared" si="3"/>
-        <v>0.38725802923476177</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -7042,12 +7006,10 @@
         <v>7.8252124704800696E-2</v>
       </c>
       <c r="D100">
-        <f t="shared" si="2"/>
-        <v>4.8999999999999906</v>
+        <v>4.8999999999999897</v>
       </c>
       <c r="E100">
-        <f t="shared" si="3"/>
-        <v>0.35187080617681377</v>
+        <v>0.33700000000000002</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -7061,12 +7023,10 @@
         <v>7.3649058545694701E-2</v>
       </c>
       <c r="D101">
-        <f t="shared" si="2"/>
         <v>4.9499999999999904</v>
       </c>
       <c r="E101">
-        <f t="shared" si="3"/>
-        <v>0.31353003427559428</v>
+        <v>0.30099999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -7080,12 +7040,10 @@
         <v>7.2114703159326096E-2</v>
       </c>
       <c r="D102">
-        <f t="shared" si="2"/>
         <v>4.9999999999999902</v>
       </c>
       <c r="E102">
-        <f t="shared" si="3"/>
-        <v>0.27255754000977411</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -7099,12 +7057,10 @@
         <v>7.3649058545694701E-2</v>
       </c>
       <c r="D103">
-        <f t="shared" si="2"/>
         <v>5.0499999999999901</v>
       </c>
       <c r="E103">
-        <f t="shared" si="3"/>
-        <v>0.22929724012641065</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -7118,12 +7074,10 @@
         <v>7.6717769318431994E-2</v>
       </c>
       <c r="D104">
-        <f t="shared" si="2"/>
         <v>5.0999999999999899</v>
       </c>
       <c r="E104">
-        <f t="shared" si="3"/>
-        <v>0.18411225485724</v>
+        <v>0.17799999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -7137,12 +7091,10 @@
         <v>7.3649058545694701E-2</v>
       </c>
       <c r="D105">
-        <f t="shared" si="2"/>
         <v>5.1499999999999897</v>
       </c>
       <c r="E105">
-        <f t="shared" si="3"/>
-        <v>0.13738185994390451</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -7156,12 +7108,10 @@
         <v>7.2114703159326096E-2</v>
       </c>
       <c r="D106">
-        <f t="shared" si="2"/>
-        <v>5.1999999999999895</v>
+        <v>5.1999999999999797</v>
       </c>
       <c r="E106">
-        <f t="shared" si="3"/>
-        <v>8.9498303056341683E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -7175,12 +7125,10 @@
         <v>5.5236793909270998E-2</v>
       </c>
       <c r="D107">
-        <f t="shared" si="2"/>
-        <v>5.2499999999999893</v>
+        <v>5.2499999999999796</v>
       </c>
       <c r="E107">
-        <f t="shared" si="3"/>
-        <v>4.0863511326823851E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -7194,12 +7142,10 @@
         <v>1.9946620022792301E-2</v>
       </c>
       <c r="D108">
-        <f t="shared" si="2"/>
-        <v>5.2999999999999892</v>
+        <v>5.2999999999999803</v>
       </c>
       <c r="E108">
-        <f t="shared" si="3"/>
-        <v>-8.1142823639044521E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -7213,12 +7159,10 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <f t="shared" si="2"/>
-        <v>5.349999999999989</v>
+        <v>5.3499999999999801</v>
       </c>
       <c r="E109">
-        <f t="shared" si="3"/>
-        <v>-5.7023966029962181E-2</v>
+        <v>-3.9E-2</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -7232,12 +7176,10 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <f t="shared" si="2"/>
-        <v>5.3999999999999888</v>
+        <v>5.3999999999999799</v>
       </c>
       <c r="E110">
-        <f t="shared" si="3"/>
-        <v>-0.1054549993904238</v>
+        <v>-8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -7251,12 +7193,10 @@
         <v>-3.0687107727372199E-2</v>
       </c>
       <c r="D111">
-        <f t="shared" si="2"/>
-        <v>5.4499999999999886</v>
+        <v>5.4499999999999797</v>
       </c>
       <c r="E111">
-        <f t="shared" si="3"/>
-        <v>-0.15300085988061815</v>
+        <v>-0.126</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -7270,12 +7210,10 @@
         <v>-2.91527523410035E-2</v>
       </c>
       <c r="D112">
-        <f t="shared" si="2"/>
-        <v>5.4999999999999885</v>
+        <v>5.4999999999999796</v>
       </c>
       <c r="E112">
-        <f t="shared" si="3"/>
-        <v>-0.19926245493933231</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -7289,12 +7227,10 @@
         <v>-2.6084041568267002E-2</v>
       </c>
       <c r="D113">
-        <f t="shared" si="2"/>
-        <v>5.5499999999999883</v>
+        <v>5.5499999999999803</v>
       </c>
       <c r="E113">
-        <f t="shared" si="3"/>
-        <v>-0.2438514719297262</v>
+        <v>-0.21099999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -7308,12 +7244,10 @@
         <v>-3.6824529272846997E-2</v>
       </c>
       <c r="D114">
-        <f t="shared" si="2"/>
-        <v>5.5999999999999881</v>
+        <v>5.5999999999999801</v>
       </c>
       <c r="E114">
-        <f t="shared" si="3"/>
-        <v>-0.28639363757523706</v>
+        <v>-0.252</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -7327,12 +7261,10 @@
         <v>-3.5290173886479197E-2</v>
       </c>
       <c r="D115">
-        <f t="shared" si="2"/>
-        <v>5.6499999999999879</v>
+        <v>5.6499999999999799</v>
       </c>
       <c r="E115">
-        <f t="shared" si="3"/>
-        <v>-0.32653185955127612</v>
+        <v>-0.29099999999999998</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -7346,12 +7278,10 @@
         <v>-4.1427595431953103E-2</v>
       </c>
       <c r="D116">
-        <f t="shared" si="2"/>
-        <v>5.6999999999999877</v>
+        <v>5.6999999999999797</v>
       </c>
       <c r="E116">
-        <f t="shared" si="3"/>
-        <v>-0.363929223862686</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -7365,12 +7295,10 @@
         <v>-3.8358884659215699E-2</v>
       </c>
       <c r="D117">
-        <f t="shared" si="2"/>
-        <v>5.7499999999999876</v>
+        <v>5.7499999999999796</v>
       </c>
       <c r="E117">
-        <f t="shared" si="3"/>
-        <v>-0.39827182284743728</v>
+        <v>-0.36599999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -7384,12 +7312,10 @@
         <v>-4.7565016977427897E-2</v>
       </c>
       <c r="D118">
-        <f t="shared" si="2"/>
-        <v>5.7999999999999874</v>
+        <v>5.7999999999999803</v>
       </c>
       <c r="E118">
-        <f t="shared" si="3"/>
-        <v>-0.42927139006874188</v>
+        <v>-0.40100000000000002</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -7403,12 +7329,10 @@
         <v>-5.5236793909270603E-2</v>
       </c>
       <c r="D119">
-        <f t="shared" si="2"/>
-        <v>5.8499999999999872</v>
+        <v>5.8499999999999801</v>
       </c>
       <c r="E119">
-        <f t="shared" si="3"/>
-        <v>-0.45666771997870781</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -7422,12 +7346,10 @@
         <v>-6.1374215454746299E-2</v>
       </c>
       <c r="D120">
-        <f t="shared" si="2"/>
-        <v>5.899999999999987</v>
+        <v>5.8999999999999799</v>
       </c>
       <c r="E120">
-        <f t="shared" si="3"/>
-        <v>-0.48023085204325544</v>
+        <v>-0.45700000000000002</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -7441,12 +7363,10 @@
         <v>-6.2908570841114106E-2</v>
       </c>
       <c r="D121">
-        <f t="shared" si="2"/>
-        <v>5.9499999999999869</v>
+        <v>5.9499999999999797</v>
       </c>
       <c r="E121">
-        <f t="shared" si="3"/>
-        <v>-0.49976300099508952</v>
+        <v>-0.48199999999999998</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -7460,12 +7380,10 @@
         <v>-6.5977281613851496E-2</v>
       </c>
       <c r="D122">
-        <f t="shared" si="2"/>
-        <v>5.9999999999999867</v>
+        <v>5.9999999999999796</v>
       </c>
       <c r="E122">
-        <f t="shared" si="3"/>
-        <v>-0.51510021701248399</v>
+        <v>-0.502</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -7479,12 +7397,10 @@
         <v>-7.2114703159326304E-2</v>
       </c>
       <c r="D123">
-        <f t="shared" si="2"/>
-        <v>6.0499999999999865</v>
+        <v>6.0499999999999803</v>
       </c>
       <c r="E123">
-        <f t="shared" si="3"/>
-        <v>-0.52611376188859693</v>
+        <v>-0.51700000000000002</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -7498,12 +7414,10 @@
         <v>-7.05803477729567E-2</v>
       </c>
       <c r="D124">
-        <f t="shared" si="2"/>
-        <v>6.0999999999999863</v>
+        <v>6.0999999999999801</v>
       </c>
       <c r="E124">
-        <f t="shared" si="3"/>
-        <v>-0.53271118963996467</v>
+        <v>-0.52600000000000002</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -7517,12 +7431,10 @@
         <v>-7.05803477729567E-2</v>
       </c>
       <c r="D125">
-        <f t="shared" si="2"/>
-        <v>6.1499999999999861</v>
+        <v>6.1499999999999799</v>
       </c>
       <c r="E125">
-        <f t="shared" si="3"/>
-        <v>-0.53483712248371484</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -7536,12 +7448,10 @@
         <v>-6.5977281613851496E-2</v>
       </c>
       <c r="D126">
-        <f t="shared" si="2"/>
-        <v>6.199999999999986</v>
+        <v>6.1999999999999797</v>
       </c>
       <c r="E126">
-        <f t="shared" si="3"/>
-        <v>-0.53247371567006618</v>
+        <v>-0.52800000000000002</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -7555,12 +7465,10 @@
         <v>-6.2908570841114106E-2</v>
       </c>
       <c r="D127">
-        <f t="shared" si="2"/>
-        <v>6.2499999999999858</v>
+        <v>6.2499999999999796</v>
       </c>
       <c r="E127">
-        <f t="shared" si="3"/>
-        <v>-0.52564080726838436</v>
+        <v>-0.52300000000000002</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -7574,12 +7482,10 @@
         <v>-5.8305504682008E-2</v>
       </c>
       <c r="D128">
-        <f t="shared" si="2"/>
-        <v>6.2999999999999856</v>
+        <v>6.2999999999999803</v>
       </c>
       <c r="E128">
-        <f t="shared" si="3"/>
-        <v>-0.51439575164951123</v>
+        <v>-0.50900000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -7593,12 +7499,10 @@
         <v>-3.9893240045584401E-2</v>
       </c>
       <c r="D129">
-        <f t="shared" si="2"/>
-        <v>6.3499999999999854</v>
+        <v>6.3499999999999801</v>
       </c>
       <c r="E129">
-        <f t="shared" si="3"/>
-        <v>-0.49883293806209339</v>
+        <v>-0.49299999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -7612,12 +7516,10 @@
         <v>-3.3755818500110502E-2</v>
       </c>
       <c r="D130">
-        <f t="shared" si="2"/>
-        <v>6.3999999999999853</v>
+        <v>6.3999999999999799</v>
       </c>
       <c r="E130">
-        <f t="shared" si="3"/>
-        <v>-0.47908299834390272</v>
+        <v>-0.47199999999999998</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -7631,12 +7533,10 @@
         <v>-1.84122646364244E-2</v>
       </c>
       <c r="D131">
-        <f t="shared" si="2"/>
-        <v>6.4499999999999851</v>
+        <v>6.4499999999999797</v>
       </c>
       <c r="E131">
-        <f t="shared" si="3"/>
-        <v>-0.45531171041849916</v>
+        <v>-0.44500000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -7650,12 +7550,10 @@
         <v>-4.6030661591061001E-3</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D195" si="4">D131+15/300</f>
-        <v>6.4999999999999849</v>
+        <v>6.4999999999999796</v>
       </c>
       <c r="E132">
-        <f t="shared" si="3"/>
-        <v>-0.42771860678111301</v>
+        <v>-0.41499999999999998</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -7669,12 +7567,10 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <f t="shared" si="4"/>
-        <v>6.5499999999999847</v>
+        <v>6.5499999999999803</v>
       </c>
       <c r="E133">
-        <f t="shared" si="3"/>
-        <v>-0.39653529965390028</v>
+        <v>-0.38400000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -7688,12 +7584,10 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <f t="shared" si="4"/>
-        <v>6.5999999999999845</v>
+        <v>6.5999999999999801</v>
       </c>
       <c r="E134">
-        <f t="shared" ref="E134:E197" si="5">0.534838696 * SIN(D131*1.833)</f>
-        <v>-0.36202353686895794</v>
+        <v>-0.34899999999999998</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -7707,12 +7601,10 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <f t="shared" si="4"/>
-        <v>6.6499999999999844</v>
+        <v>6.6499999999999799</v>
       </c>
       <c r="E135">
-        <f t="shared" si="5"/>
-        <v>-0.32447300479771368</v>
+        <v>-0.312</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -7726,12 +7618,10 @@
         <v>1.8412264636423599E-2</v>
       </c>
       <c r="D136">
-        <f t="shared" si="4"/>
-        <v>6.6999999999999842</v>
+        <v>6.6999999999999797</v>
       </c>
       <c r="E136">
-        <f t="shared" si="5"/>
-        <v>-0.2841988967685608</v>
+        <v>-0.27200000000000002</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -7745,12 +7635,10 @@
         <v>2.6084041568266901E-2</v>
       </c>
       <c r="D137">
-        <f t="shared" si="4"/>
-        <v>6.749999999999984</v>
+        <v>6.7499999999999796</v>
       </c>
       <c r="E137">
-        <f t="shared" si="5"/>
-        <v>-0.24153926738306086</v>
+        <v>-0.23300000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -7764,12 +7652,10 @@
         <v>2.91527523410041E-2</v>
       </c>
       <c r="D138">
-        <f t="shared" si="4"/>
-        <v>6.7999999999999838</v>
+        <v>6.7999999999999803</v>
       </c>
       <c r="E138">
-        <f t="shared" si="5"/>
-        <v>-0.19685219493817452</v>
+        <v>-0.191</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -7783,12 +7669,10 @@
         <v>5.5236793909270998E-2</v>
       </c>
       <c r="D139">
-        <f t="shared" si="4"/>
-        <v>6.8499999999999837</v>
+        <v>6.8499999999999801</v>
       </c>
       <c r="E139">
-        <f t="shared" si="5"/>
-        <v>-0.15051277577270528</v>
+        <v>-0.14799999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -7802,12 +7686,10 @@
         <v>7.6717769318431994E-2</v>
       </c>
       <c r="D140">
-        <f t="shared" si="4"/>
-        <v>6.8999999999999835</v>
+        <v>6.8999999999999799</v>
       </c>
       <c r="E140">
-        <f t="shared" si="5"/>
-        <v>-0.10290997576694638</v>
+        <v>-0.105</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -7821,12 +7703,10 @@
         <v>7.3649058545694701E-2</v>
       </c>
       <c r="D141">
-        <f t="shared" si="4"/>
-        <v>6.9499999999999833</v>
+        <v>6.9499999999999797</v>
       </c>
       <c r="E141">
-        <f t="shared" si="5"/>
-        <v>-5.4443365423552305E-2</v>
+        <v>-6.2E-2</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -7840,12 +7720,10 @@
         <v>7.0580347772957394E-2</v>
       </c>
       <c r="D142">
-        <f t="shared" si="4"/>
-        <v>6.9999999999999831</v>
+        <v>6.9999999999999796</v>
       </c>
       <c r="E142">
-        <f t="shared" si="5"/>
-        <v>-5.5197659348578954E-3</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -7859,12 +7737,10 @@
         <v>7.5183413932063403E-2</v>
       </c>
       <c r="D143">
-        <f t="shared" si="4"/>
-        <v>7.0499999999999829</v>
+        <v>7.0499999999999803</v>
       </c>
       <c r="E143">
-        <f t="shared" si="5"/>
-        <v>4.3450165610959497E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -7878,12 +7754,10 @@
         <v>7.5183413932063403E-2</v>
       </c>
       <c r="D144">
-        <f t="shared" si="4"/>
-        <v>7.0999999999999828</v>
+        <v>7.0999999999999801</v>
       </c>
       <c r="E144">
-        <f t="shared" si="5"/>
-        <v>9.2055383221640932E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -7897,12 +7771,10 @@
         <v>6.9045992386588803E-2</v>
       </c>
       <c r="D145">
-        <f t="shared" si="4"/>
-        <v>7.1499999999999826</v>
+        <v>7.1499999999999799</v>
       </c>
       <c r="E145">
-        <f t="shared" si="5"/>
-        <v>0.13988790225699763</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -7916,12 +7788,10 @@
         <v>4.4496306204690597E-2</v>
       </c>
       <c r="D146">
-        <f t="shared" si="4"/>
-        <v>7.1999999999999824</v>
+        <v>7.1999999999999797</v>
       </c>
       <c r="E146">
-        <f t="shared" si="5"/>
-        <v>0.18654622398855406</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -7935,12 +7805,10 @@
         <v>1.3809198477317699E-2</v>
       </c>
       <c r="D147">
-        <f t="shared" si="4"/>
-        <v>7.2499999999999822</v>
+        <v>7.2499999999999796</v>
       </c>
       <c r="E147">
-        <f t="shared" si="5"/>
-        <v>0.23163870571745568</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -7954,12 +7822,10 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <f t="shared" si="4"/>
-        <v>7.2999999999999821</v>
+        <v>7.2999999999999803</v>
       </c>
       <c r="E148">
-        <f t="shared" si="5"/>
-        <v>0.27478684816239596</v>
+        <v>0.23899999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -7973,12 +7839,10 @@
         <v>-1.99466200227922E-2</v>
       </c>
       <c r="D149">
-        <f t="shared" si="4"/>
-        <v>7.3499999999999819</v>
+        <v>7.3499999999999801</v>
       </c>
       <c r="E149">
-        <f t="shared" si="5"/>
-        <v>0.31562847252374043</v>
+        <v>0.28199999999999997</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -7992,12 +7856,10 @@
         <v>-3.3755818500110502E-2</v>
       </c>
       <c r="D150">
-        <f t="shared" si="4"/>
-        <v>7.3999999999999817</v>
+        <v>7.3999999999999799</v>
       </c>
       <c r="E150">
-        <f t="shared" si="5"/>
-        <v>0.3538207605560641</v>
+        <v>0.31900000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -8011,12 +7873,10 @@
         <v>-2.76183969546357E-2</v>
       </c>
       <c r="D151">
-        <f t="shared" si="4"/>
-        <v>7.4499999999999815</v>
+        <v>7.4499999999999797</v>
       </c>
       <c r="E151">
-        <f t="shared" si="5"/>
-        <v>0.38904313213120756</v>
+        <v>0.35699999999999998</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -8030,12 +7890,10 @@
         <v>-2.76183969546357E-2</v>
       </c>
       <c r="D152">
-        <f t="shared" si="4"/>
-        <v>7.4999999999999813</v>
+        <v>7.4999999999999796</v>
       </c>
       <c r="E152">
-        <f t="shared" si="5"/>
-        <v>0.4209999361380331</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -8049,12 +7907,10 @@
         <v>-3.6824529272846997E-2</v>
       </c>
       <c r="D153">
-        <f t="shared" si="4"/>
-        <v>7.5499999999999812</v>
+        <v>7.5499999999999803</v>
       </c>
       <c r="E153">
-        <f t="shared" si="5"/>
-        <v>0.44942293213188855</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -8068,12 +7924,10 @@
         <v>-4.1427595431953103E-2</v>
       </c>
       <c r="D154">
-        <f t="shared" si="4"/>
-        <v>7.599999999999981</v>
+        <v>7.5999999999999801</v>
       </c>
       <c r="E154">
-        <f t="shared" si="5"/>
-        <v>0.47407354190319723</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -8087,12 +7941,10 @@
         <v>-5.5236793909270603E-2</v>
       </c>
       <c r="D155">
-        <f t="shared" si="4"/>
-        <v>7.6499999999999808</v>
+        <v>7.6499999999999799</v>
       </c>
       <c r="E155">
-        <f t="shared" si="5"/>
-        <v>0.49474485206585855</v>
+        <v>0.47499999999999998</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -8106,12 +7958,10 @@
         <v>-6.2908570841114106E-2</v>
       </c>
       <c r="D156">
-        <f t="shared" si="4"/>
-        <v>7.6999999999999806</v>
+        <v>7.6999999999999797</v>
       </c>
       <c r="E156">
-        <f t="shared" si="5"/>
-        <v>0.51126335085604313</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -8125,12 +7975,10 @@
         <v>-6.2908570841114106E-2</v>
       </c>
       <c r="D157">
-        <f t="shared" si="4"/>
-        <v>7.7499999999999805</v>
+        <v>7.7499999999999796</v>
       </c>
       <c r="E157">
-        <f t="shared" si="5"/>
-        <v>0.52349038456296293</v>
+        <v>0.51400000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -8144,12 +7992,10 @@
         <v>-7.05803477729567E-2</v>
       </c>
       <c r="D158">
-        <f t="shared" si="4"/>
         <v>7.7999999999999803</v>
       </c>
       <c r="E158">
-        <f t="shared" si="5"/>
-        <v>0.53132332136656424</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -8163,12 +8009,10 @@
         <v>-7.2114703159326304E-2</v>
       </c>
       <c r="D159">
-        <f t="shared" si="4"/>
         <v>7.8499999999999801</v>
       </c>
       <c r="E159">
-        <f t="shared" si="5"/>
-        <v>0.53469641281306934</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -8182,12 +8026,10 @@
         <v>-7.2114703159326304E-2</v>
       </c>
       <c r="D160">
-        <f t="shared" si="4"/>
         <v>7.8999999999999799</v>
       </c>
       <c r="E160">
-        <f t="shared" si="5"/>
-        <v>0.53358134569727544</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -8201,12 +8043,10 @@
         <v>-6.7511637000220198E-2</v>
       </c>
       <c r="D161">
-        <f t="shared" si="4"/>
         <v>7.9499999999999797</v>
       </c>
       <c r="E161">
-        <f t="shared" si="5"/>
-        <v>0.52798747971919813</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -8220,12 +8060,10 @@
         <v>-6.2908570841114106E-2</v>
       </c>
       <c r="D162">
-        <f t="shared" si="4"/>
         <v>7.9999999999999796</v>
       </c>
       <c r="E162">
-        <f t="shared" si="5"/>
-        <v>0.51796176892020407</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -8239,12 +8077,10 @@
         <v>-6.1374215454746299E-2</v>
       </c>
       <c r="D163">
-        <f t="shared" si="4"/>
         <v>8.0499999999999794</v>
       </c>
       <c r="E163">
-        <f t="shared" si="5"/>
-        <v>0.50358836755808789</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -8258,12 +8094,10 @@
         <v>-4.7565016977427897E-2</v>
       </c>
       <c r="D164">
-        <f t="shared" si="4"/>
         <v>8.0999999999999801</v>
       </c>
       <c r="E164">
-        <f t="shared" si="5"/>
-        <v>0.48498792372931476</v>
+        <v>0.47699999999999998</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -8277,1382 +8111,1121 @@
         <v>-3.5290173886479197E-2</v>
       </c>
       <c r="D165">
-        <f t="shared" si="4"/>
         <v>8.1499999999999808</v>
       </c>
       <c r="E165">
-        <f t="shared" si="5"/>
-        <v>0.46231656666765591</v>
+        <v>0.45200000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D166">
-        <f t="shared" si="4"/>
-        <v>8.1999999999999815</v>
+        <v>8.1999999999999797</v>
       </c>
       <c r="E166">
-        <f t="shared" si="5"/>
-        <v>0.43576459621967256</v>
+        <v>0.42399999999999999</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D167">
-        <f t="shared" si="4"/>
-        <v>8.2499999999999822</v>
+        <v>8.2499999999999805</v>
       </c>
       <c r="E167">
-        <f t="shared" si="5"/>
-        <v>0.40555488549738872</v>
+        <v>0.39400000000000002</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D168">
-        <f t="shared" si="4"/>
-        <v>8.2999999999999829</v>
+        <v>8.2999999999999794</v>
       </c>
       <c r="E168">
-        <f t="shared" si="5"/>
-        <v>0.37194101011603942</v>
+        <v>0.35899999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D169">
-        <f t="shared" si="4"/>
-        <v>8.3499999999999837</v>
+        <v>8.3499999999999801</v>
       </c>
       <c r="E169">
-        <f t="shared" si="5"/>
-        <v>0.33520511971977729</v>
+        <v>0.32200000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D170">
-        <f t="shared" si="4"/>
-        <v>8.3999999999999844</v>
+        <v>8.3999999999999808</v>
       </c>
       <c r="E170">
-        <f t="shared" si="5"/>
-        <v>0.29565556966142431</v>
+        <v>0.28499999999999998</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D171">
-        <f t="shared" si="4"/>
-        <v>8.4499999999999851</v>
+        <v>8.4499999999999797</v>
       </c>
       <c r="E171">
-        <f t="shared" si="5"/>
-        <v>0.2536243327155791</v>
+        <v>0.24399999999999999</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D172">
-        <f t="shared" si="4"/>
-        <v>8.4999999999999858</v>
+        <v>8.4999999999999805</v>
       </c>
       <c r="E172">
-        <f t="shared" si="5"/>
-        <v>0.20946421255075709</v>
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D173">
-        <f t="shared" si="4"/>
-        <v>8.5499999999999865</v>
+        <v>8.5499999999999794</v>
       </c>
       <c r="E173">
-        <f t="shared" si="5"/>
-        <v>0.16354588235024603</v>
+        <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D174">
-        <f t="shared" si="4"/>
-        <v>8.5999999999999872</v>
+        <v>8.5999999999999801</v>
       </c>
       <c r="E174">
-        <f t="shared" si="5"/>
-        <v>0.11625477343903198</v>
+        <v>0.11799999999999999</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D175">
-        <f t="shared" si="4"/>
-        <v>8.6499999999999879</v>
+        <v>8.6499999999999808</v>
       </c>
       <c r="E175">
-        <f t="shared" si="5"/>
-        <v>6.7987840033179092E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D176">
-        <f t="shared" si="4"/>
-        <v>8.6999999999999886</v>
+        <v>8.6999999999999797</v>
       </c>
       <c r="E176">
-        <f t="shared" si="5"/>
-        <v>1.9150227267852347E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="177" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D177">
-        <f t="shared" si="4"/>
         <v>8.7499999999999893</v>
       </c>
       <c r="E177">
-        <f t="shared" si="5"/>
-        <v>-2.9848129527960784E-2</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="178" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D178">
-        <f t="shared" si="4"/>
         <v>8.7999999999999901</v>
       </c>
       <c r="E178">
-        <f t="shared" si="5"/>
-        <v>-7.859594576487107E-2</v>
+        <v>-5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="179" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D179">
-        <f t="shared" si="4"/>
         <v>8.8499999999999908</v>
       </c>
       <c r="E179">
-        <f t="shared" si="5"/>
-        <v>-0.12668403985199031</v>
+        <v>-0.10299999999999999</v>
       </c>
     </row>
     <row r="180" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D180">
-        <f t="shared" si="4"/>
-        <v>8.8999999999999915</v>
+        <v>8.8999999999999897</v>
       </c>
       <c r="E180">
-        <f t="shared" si="5"/>
-        <v>-0.17370876780359074</v>
+        <v>-0.14399999999999999</v>
       </c>
     </row>
     <row r="181" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D181">
-        <f t="shared" si="4"/>
-        <v>8.9499999999999922</v>
+        <v>8.9499999999999904</v>
       </c>
       <c r="E181">
-        <f t="shared" si="5"/>
-        <v>-0.21927541136397197</v>
+        <v>-0.188</v>
       </c>
     </row>
     <row r="182" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D182">
-        <f t="shared" si="4"/>
-        <v>8.9999999999999929</v>
+        <v>8.9999999999999893</v>
       </c>
       <c r="E182">
-        <f t="shared" si="5"/>
-        <v>-0.26300149121112903</v>
+        <v>-0.22800000000000001</v>
       </c>
     </row>
     <row r="183" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D183">
-        <f t="shared" si="4"/>
-        <v>9.0499999999999936</v>
+        <v>9.0499999999999901</v>
       </c>
       <c r="E183">
-        <f t="shared" si="5"/>
-        <v>-0.30451997742872255</v>
+        <v>-0.26900000000000002</v>
       </c>
     </row>
     <row r="184" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D184">
-        <f t="shared" si="4"/>
-        <v>9.0999999999999943</v>
+        <v>9.0999999999999908</v>
       </c>
       <c r="E184">
-        <f t="shared" si="5"/>
-        <v>-0.34348237029813483</v>
+        <v>-0.309</v>
       </c>
     </row>
     <row r="185" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D185">
-        <f t="shared" si="4"/>
-        <v>9.149999999999995</v>
+        <v>9.1499999999999897</v>
       </c>
       <c r="E185">
-        <f t="shared" si="5"/>
-        <v>-0.37956162555092854</v>
+        <v>-0.34499999999999997</v>
       </c>
     </row>
     <row r="186" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D186">
-        <f t="shared" si="4"/>
-        <v>9.1999999999999957</v>
+        <v>9.1999999999999904</v>
       </c>
       <c r="E186">
-        <f t="shared" si="5"/>
-        <v>-0.41245489952759185</v>
+        <v>-0.38100000000000001</v>
       </c>
     </row>
     <row r="187" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D187">
-        <f t="shared" si="4"/>
-        <v>9.2499999999999964</v>
+        <v>9.2499999999999893</v>
       </c>
       <c r="E187">
-        <f t="shared" si="5"/>
-        <v>-0.44188609120013445</v>
+        <v>-0.41399999999999998</v>
       </c>
     </row>
     <row r="188" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D188">
-        <f t="shared" si="4"/>
-        <v>9.2999999999999972</v>
+        <v>9.2999999999999901</v>
       </c>
       <c r="E188">
-        <f t="shared" si="5"/>
-        <v>-0.46760815972119241</v>
+        <v>-0.44400000000000001</v>
       </c>
     </row>
     <row r="189" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D189">
-        <f t="shared" si="4"/>
-        <v>9.3499999999999979</v>
+        <v>9.3499999999999908</v>
       </c>
       <c r="E189">
-        <f t="shared" si="5"/>
-        <v>-0.48940519804649463</v>
+        <v>-0.46800000000000003</v>
       </c>
     </row>
     <row r="190" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D190">
-        <f t="shared" si="4"/>
-        <v>9.3999999999999986</v>
+        <v>9.3999999999999897</v>
       </c>
       <c r="E190">
-        <f t="shared" si="5"/>
-        <v>-0.50709424522502633</v>
+        <v>-0.49099999999999999</v>
       </c>
     </row>
     <row r="191" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D191">
-        <f t="shared" si="4"/>
         <v>9.4499999999999993</v>
       </c>
       <c r="E191">
-        <f t="shared" si="5"/>
-        <v>-0.52052682214480772</v>
+        <v>-0.50800000000000001</v>
       </c>
     </row>
     <row r="192" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D192">
-        <f t="shared" si="4"/>
         <v>9.5</v>
       </c>
       <c r="E192">
-        <f t="shared" si="5"/>
-        <v>-0.52959017784347684</v>
+        <v>-0.52100000000000002</v>
       </c>
     </row>
     <row r="193" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D193">
-        <f t="shared" si="4"/>
         <v>9.5500000000000007</v>
       </c>
       <c r="E193">
-        <f t="shared" si="5"/>
-        <v>-0.53420823592233813</v>
+        <v>-0.52900000000000003</v>
       </c>
     </row>
     <row r="194" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D194">
-        <f t="shared" si="4"/>
-        <v>9.6000000000000014</v>
+        <v>9.6</v>
       </c>
       <c r="E194">
-        <f t="shared" si="5"/>
-        <v>-0.53434223311982643</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="195" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D195">
-        <f t="shared" si="4"/>
-        <v>9.6500000000000021</v>
+        <v>9.65</v>
       </c>
       <c r="E195">
-        <f t="shared" si="5"/>
-        <v>-0.52999104468429814</v>
+        <v>-0.52600000000000002</v>
       </c>
     </row>
     <row r="196" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D196">
-        <f t="shared" ref="D196:D259" si="6">D195+15/300</f>
-        <v>9.7000000000000028</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E196">
-        <f t="shared" si="5"/>
-        <v>-0.52119119381502121</v>
+        <v>-0.51700000000000002</v>
       </c>
     </row>
     <row r="197" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D197">
-        <f t="shared" si="6"/>
-        <v>9.7500000000000036</v>
+        <v>9.75</v>
       </c>
       <c r="E197">
-        <f t="shared" si="5"/>
-        <v>-0.50801654509211891</v>
+        <v>-0.502</v>
       </c>
     </row>
     <row r="198" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D198">
-        <f t="shared" si="6"/>
-        <v>9.8000000000000043</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E198">
-        <f t="shared" ref="E198:E261" si="7">0.534838696 * SIN(D195*1.833)</f>
-        <v>-0.49057768446876793</v>
+        <v>-0.48399999999999999</v>
       </c>
     </row>
     <row r="199" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D199">
-        <f t="shared" si="6"/>
-        <v>9.850000000000005</v>
+        <v>9.85</v>
       </c>
       <c r="E199">
-        <f t="shared" si="7"/>
-        <v>-0.46902099102989903</v>
+        <v>-0.46100000000000002</v>
       </c>
     </row>
     <row r="200" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D200">
-        <f t="shared" si="6"/>
-        <v>9.9000000000000057</v>
+        <v>9.9</v>
       </c>
       <c r="E200">
-        <f t="shared" si="7"/>
-        <v>-0.44352740830891557</v>
+        <v>-0.434</v>
       </c>
     </row>
     <row r="201" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D201">
-        <f t="shared" si="6"/>
-        <v>9.9500000000000064</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="E201">
-        <f t="shared" si="7"/>
-        <v>-0.41431092547580467</v>
+        <v>-0.40100000000000002</v>
       </c>
     </row>
     <row r="202" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D202">
-        <f t="shared" si="6"/>
-        <v>10.000000000000007</v>
+        <v>10</v>
       </c>
       <c r="E202">
-        <f t="shared" si="7"/>
-        <v>-0.38161678114531178</v>
+        <v>-0.36899999999999999</v>
       </c>
     </row>
     <row r="203" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D203">
-        <f t="shared" si="6"/>
-        <v>10.050000000000008</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E203">
-        <f t="shared" si="7"/>
-        <v>-0.34571940488213493</v>
+        <v>-0.33300000000000002</v>
       </c>
     </row>
     <row r="204" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D204">
-        <f t="shared" si="6"/>
-        <v>10.100000000000009</v>
+        <v>10.1</v>
       </c>
       <c r="E204">
-        <f t="shared" si="7"/>
-        <v>-0.30692011368182331</v>
+        <v>-0.29399999999999998</v>
       </c>
     </row>
     <row r="205" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D205">
-        <f t="shared" si="6"/>
-        <v>10.150000000000009</v>
+        <v>10.15</v>
       </c>
       <c r="E205">
-        <f t="shared" si="7"/>
-        <v>-0.26554458276276033</v>
+        <v>-0.25600000000000001</v>
       </c>
     </row>
     <row r="206" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D206">
-        <f t="shared" si="6"/>
-        <v>10.20000000000001</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E206">
-        <f t="shared" si="7"/>
-        <v>-0.22194011189901239</v>
+        <v>-0.21299999999999999</v>
       </c>
     </row>
     <row r="207" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D207">
-        <f t="shared" si="6"/>
-        <v>10.250000000000011</v>
+        <v>10.25</v>
       </c>
       <c r="E207">
-        <f t="shared" si="7"/>
-        <v>-0.1764727102400182</v>
+        <v>-0.17299999999999999</v>
       </c>
     </row>
     <row r="208" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D208">
-        <f t="shared" si="6"/>
-        <v>10.300000000000011</v>
+        <v>10.3</v>
       </c>
       <c r="E208">
-        <f t="shared" si="7"/>
-        <v>-0.12952402408669031</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="209" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D209">
-        <f t="shared" si="6"/>
-        <v>10.350000000000012</v>
+        <v>10.35</v>
       </c>
       <c r="E209">
-        <f t="shared" si="7"/>
-        <v>-8.1488133411698027E-2</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="210" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D210">
-        <f t="shared" si="6"/>
-        <v>10.400000000000013</v>
+        <v>10.4</v>
       </c>
       <c r="E210">
-        <f t="shared" si="7"/>
-        <v>-3.2768244013442659E-2</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="211" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D211">
-        <f t="shared" si="6"/>
-        <v>10.450000000000014</v>
+        <v>10.45</v>
       </c>
       <c r="E211">
-        <f t="shared" si="7"/>
-        <v>1.6226696930729572E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="212" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D212">
-        <f t="shared" si="6"/>
-        <v>10.500000000000014</v>
+        <v>10.5</v>
       </c>
       <c r="E212">
-        <f t="shared" si="7"/>
-        <v>6.5085433503557069E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="213" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D213">
-        <f t="shared" si="6"/>
-        <v>10.550000000000015</v>
+        <v>10.55</v>
       </c>
       <c r="E213">
-        <f t="shared" si="7"/>
-        <v>0.11339785306609623</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="214" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D214">
-        <f t="shared" si="6"/>
-        <v>10.600000000000016</v>
+        <v>10.6</v>
       </c>
       <c r="E214">
-        <f t="shared" si="7"/>
-        <v>0.16075842867945433</v>
+        <v>0.13300000000000001</v>
       </c>
     </row>
     <row r="215" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D215">
-        <f t="shared" si="6"/>
-        <v>10.650000000000016</v>
+        <v>10.65</v>
       </c>
       <c r="E215">
-        <f t="shared" si="7"/>
-        <v>0.20676962303486926</v>
+        <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="216" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D216">
-        <f t="shared" si="6"/>
-        <v>10.700000000000017</v>
+        <v>10.7</v>
       </c>
       <c r="E216">
-        <f t="shared" si="7"/>
-        <v>0.25104522532007562</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="217" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D217">
-        <f t="shared" si="6"/>
-        <v>10.750000000000018</v>
+        <v>10.75</v>
       </c>
       <c r="E217">
-        <f t="shared" si="7"/>
-        <v>0.29321359301282079</v>
+        <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="218" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D218">
-        <f t="shared" si="6"/>
-        <v>10.800000000000018</v>
+        <v>10.8</v>
       </c>
       <c r="E218">
-        <f t="shared" si="7"/>
-        <v>0.33292077139041903</v>
+        <v>0.29799999999999999</v>
       </c>
     </row>
     <row r="219" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D219">
-        <f t="shared" si="6"/>
-        <v>10.850000000000019</v>
+        <v>10.85</v>
       </c>
       <c r="E219">
-        <f t="shared" si="7"/>
-        <v>0.36983346457066563</v>
+        <v>0.33400000000000002</v>
       </c>
     </row>
     <row r="220" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D220">
-        <f t="shared" si="6"/>
-        <v>10.90000000000002</v>
+        <v>10.9</v>
       </c>
       <c r="E220">
-        <f t="shared" si="7"/>
-        <v>0.4036418331456566</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="221" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D221">
-        <f t="shared" si="6"/>
-        <v>10.950000000000021</v>
+        <v>10.95</v>
       </c>
       <c r="E221">
-        <f t="shared" si="7"/>
-        <v>0.43406209492560888</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="222" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D222">
-        <f t="shared" si="6"/>
-        <v>11.000000000000021</v>
+        <v>11</v>
       </c>
       <c r="E222">
-        <f t="shared" si="7"/>
-        <v>0.46083890696244328</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="223" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D223">
-        <f t="shared" si="6"/>
-        <v>11.050000000000022</v>
+        <v>11.05</v>
       </c>
       <c r="E223">
-        <f t="shared" si="7"/>
-        <v>0.48374750885879342</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="224" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D224">
-        <f t="shared" si="6"/>
-        <v>11.100000000000023</v>
+        <v>11.1</v>
       </c>
       <c r="E224">
-        <f t="shared" si="7"/>
-        <v>0.50259560937183911</v>
+        <v>0.48599999999999999</v>
       </c>
     </row>
     <row r="225" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D225">
-        <f t="shared" si="6"/>
-        <v>11.150000000000023</v>
+        <v>11.15</v>
       </c>
       <c r="E225">
-        <f t="shared" si="7"/>
-        <v>0.51722500047610342</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="226" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D226">
-        <f t="shared" si="6"/>
-        <v>11.200000000000024</v>
+        <v>11.2</v>
       </c>
       <c r="E226">
-        <f t="shared" si="7"/>
-        <v>0.52751288533702312</v>
+        <v>0.51900000000000002</v>
       </c>
     </row>
     <row r="227" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D227">
-        <f t="shared" si="6"/>
-        <v>11.250000000000025</v>
+        <v>11.25</v>
       </c>
       <c r="E227">
-        <f t="shared" si="7"/>
-        <v>0.53337290904848678</v>
+        <v>0.52600000000000002</v>
       </c>
     </row>
     <row r="228" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D228">
-        <f t="shared" si="6"/>
-        <v>11.300000000000026</v>
+        <v>11.3</v>
       </c>
       <c r="E228">
-        <f t="shared" si="7"/>
-        <v>0.53475588348249226</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="229" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D229">
-        <f t="shared" si="6"/>
-        <v>11.350000000000026</v>
+        <v>11.35</v>
       </c>
       <c r="E229">
-        <f t="shared" si="7"/>
-        <v>0.53165020016664499</v>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="230" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D230">
-        <f t="shared" si="6"/>
-        <v>11.400000000000027</v>
+        <v>11.4</v>
       </c>
       <c r="E230">
-        <f t="shared" si="7"/>
-        <v>0.52408192772387185</v>
+        <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="231" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D231">
-        <f t="shared" si="6"/>
-        <v>11.450000000000028</v>
+        <v>11.45</v>
       </c>
       <c r="E231">
-        <f t="shared" si="7"/>
-        <v>0.51211459305645191</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="232" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D232">
-        <f t="shared" si="6"/>
-        <v>11.500000000000028</v>
+        <v>11.5</v>
       </c>
       <c r="E232">
-        <f t="shared" si="7"/>
-        <v>0.49584864811107576</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="233" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D233">
-        <f t="shared" si="6"/>
-        <v>11.550000000000029</v>
+        <v>11.55</v>
       </c>
       <c r="E233">
-        <f t="shared" si="7"/>
-        <v>0.47542062670082125</v>
+        <v>0.46800000000000003</v>
       </c>
     </row>
     <row r="234" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D234">
-        <f t="shared" si="6"/>
-        <v>11.60000000000003</v>
+        <v>11.6</v>
       </c>
       <c r="E234">
-        <f t="shared" si="7"/>
-        <v>0.4510019984615532</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="235" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D235">
-        <f t="shared" si="6"/>
-        <v>11.650000000000031</v>
+        <v>11.65</v>
       </c>
       <c r="E235">
-        <f t="shared" si="7"/>
-        <v>0.42279772956245737</v>
+        <v>0.41099999999999998</v>
       </c>
     </row>
     <row r="236" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D236">
-        <f t="shared" si="6"/>
-        <v>11.700000000000031</v>
+        <v>11.7</v>
       </c>
       <c r="E236">
-        <f t="shared" si="7"/>
-        <v>0.39104456225188161</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="237" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D237">
-        <f t="shared" si="6"/>
-        <v>11.750000000000032</v>
+        <v>11.75</v>
       </c>
       <c r="E237">
-        <f t="shared" si="7"/>
-        <v>0.35600902767970832</v>
+        <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="238" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D238">
-        <f t="shared" si="6"/>
-        <v>11.800000000000033</v>
+        <v>11.8</v>
       </c>
       <c r="E238">
-        <f t="shared" si="7"/>
-        <v>0.3179852086763188</v>
+        <v>0.30499999999999999</v>
       </c>
     </row>
     <row r="239" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D239">
-        <f t="shared" si="6"/>
-        <v>11.850000000000033</v>
+        <v>11.85</v>
       </c>
       <c r="E239">
-        <f t="shared" si="7"/>
-        <v>0.27729227126703487</v>
+        <v>0.26600000000000001</v>
       </c>
     </row>
     <row r="240" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D240">
-        <f t="shared" si="6"/>
-        <v>11.900000000000034</v>
+        <v>11.9</v>
       </c>
       <c r="E240">
-        <f t="shared" si="7"/>
-        <v>0.23427178564212159</v>
+        <v>0.22700000000000001</v>
       </c>
     </row>
     <row r="241" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D241">
-        <f t="shared" si="6"/>
-        <v>11.950000000000035</v>
+        <v>11.95</v>
       </c>
       <c r="E241">
-        <f t="shared" si="7"/>
-        <v>0.18928485906971243</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="242" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D242">
-        <f t="shared" si="6"/>
-        <v>12.000000000000036</v>
+        <v>12</v>
       </c>
       <c r="E242">
-        <f t="shared" si="7"/>
-        <v>0.14270910481754043</v>
+        <v>0.14299999999999999</v>
       </c>
     </row>
     <row r="243" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D243">
-        <f t="shared" si="6"/>
-        <v>12.050000000000036</v>
+        <v>12.05</v>
       </c>
       <c r="E243">
-        <f t="shared" si="7"/>
-        <v>9.4935472525874628E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="244" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D244">
-        <f t="shared" si="6"/>
-        <v>12.100000000000037</v>
+        <v>12.1</v>
       </c>
       <c r="E244">
-        <f t="shared" si="7"/>
-        <v>4.636496663701889E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="245" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D245">
-        <f t="shared" si="6"/>
-        <v>12.150000000000038</v>
+        <v>12.15</v>
       </c>
       <c r="E245">
-        <f t="shared" si="7"/>
-        <v>-2.5947195736345107E-3</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="246" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D246">
-        <f t="shared" si="6"/>
-        <v>12.200000000000038</v>
+        <v>12.2</v>
       </c>
       <c r="E246">
-        <f t="shared" si="7"/>
-        <v>-5.1532626111576239E-2</v>
+        <v>-3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="247" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D247">
-        <f t="shared" si="6"/>
-        <v>12.250000000000039</v>
+        <v>12.25</v>
       </c>
       <c r="E247">
-        <f t="shared" si="7"/>
-        <v>-0.10003797579748371</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="248" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D248">
-        <f t="shared" si="6"/>
-        <v>12.30000000000004</v>
+        <v>12.3</v>
       </c>
       <c r="E248">
-        <f t="shared" si="7"/>
-        <v>-0.14770362226700268</v>
+        <v>-0.121</v>
       </c>
     </row>
     <row r="249" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D249">
-        <f t="shared" si="6"/>
-        <v>12.350000000000041</v>
+        <v>12.35</v>
       </c>
       <c r="E249">
-        <f t="shared" si="7"/>
-        <v>-0.19412946749403232</v>
+        <v>-0.16200000000000001</v>
       </c>
     </row>
     <row r="250" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D250">
-        <f t="shared" si="6"/>
-        <v>12.400000000000041</v>
+        <v>12.4</v>
       </c>
       <c r="E250">
-        <f t="shared" si="7"/>
-        <v>-0.23892582015135488</v>
+        <v>-0.20499999999999999</v>
       </c>
     </row>
     <row r="251" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D251">
-        <f t="shared" si="6"/>
-        <v>12.450000000000042</v>
+        <v>12.45</v>
       </c>
       <c r="E251">
-        <f t="shared" si="7"/>
-        <v>-0.28171666661905292</v>
+        <v>-0.246</v>
       </c>
     </row>
     <row r="252" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D252">
-        <f t="shared" si="6"/>
-        <v>12.500000000000043</v>
+        <v>12.5</v>
       </c>
       <c r="E252">
-        <f t="shared" si="7"/>
-        <v>-0.3221428271843762</v>
+        <v>-0.28599999999999998</v>
       </c>
     </row>
     <row r="253" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D253">
-        <f t="shared" si="6"/>
-        <v>12.550000000000043</v>
+        <v>12.55</v>
       </c>
       <c r="E253">
-        <f t="shared" si="7"/>
-        <v>-0.35986497094041636</v>
+        <v>-0.32400000000000001</v>
       </c>
     </row>
     <row r="254" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D254">
-        <f t="shared" si="6"/>
-        <v>12.600000000000044</v>
+        <v>12.6</v>
       </c>
       <c r="E254">
-        <f t="shared" si="7"/>
-        <v>-0.39456646407697615</v>
+        <v>-0.36199999999999999</v>
       </c>
     </row>
     <row r="255" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D255">
-        <f t="shared" si="6"/>
-        <v>12.650000000000045</v>
+        <v>12.65</v>
       </c>
       <c r="E255">
-        <f t="shared" si="7"/>
-        <v>-0.42595602765555279</v>
+        <v>-0.39500000000000002</v>
       </c>
     </row>
     <row r="256" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D256">
-        <f t="shared" si="6"/>
-        <v>12.700000000000045</v>
+        <v>12.7</v>
       </c>
       <c r="E256">
-        <f t="shared" si="7"/>
-        <v>-0.4537701825594625</v>
+        <v>-0.42699999999999999</v>
       </c>
     </row>
     <row r="257" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D257">
-        <f t="shared" si="6"/>
-        <v>12.750000000000046</v>
+        <v>12.75</v>
       </c>
       <c r="E257">
-        <f t="shared" si="7"/>
-        <v>-0.47777546109658375</v>
+        <v>-0.45500000000000002</v>
       </c>
     </row>
     <row r="258" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D258">
-        <f t="shared" si="6"/>
-        <v>12.800000000000047</v>
+        <v>12.8</v>
       </c>
       <c r="E258">
-        <f t="shared" si="7"/>
-        <v>-0.49777036669086899</v>
+        <v>-0.47899999999999998</v>
       </c>
     </row>
     <row r="259" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D259">
-        <f t="shared" si="6"/>
-        <v>12.850000000000048</v>
+        <v>12.85</v>
       </c>
       <c r="E259">
-        <f t="shared" si="7"/>
-        <v>-0.51358706521327813</v>
+        <v>-0.499</v>
       </c>
     </row>
     <row r="260" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D260">
-        <f t="shared" ref="D260:D302" si="8">D259+15/300</f>
-        <v>12.900000000000048</v>
+        <v>12.9</v>
       </c>
       <c r="E260">
-        <f t="shared" si="7"/>
-        <v>-0.52509279375536522</v>
+        <v>-0.51500000000000001</v>
       </c>
     </row>
     <row r="261" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D261">
-        <f t="shared" si="8"/>
-        <v>12.950000000000049</v>
+        <v>12.95</v>
       </c>
       <c r="E261">
-        <f t="shared" si="7"/>
-        <v>-0.53219097502049195</v>
+        <v>-0.52400000000000002</v>
       </c>
     </row>
     <row r="262" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D262">
-        <f t="shared" si="8"/>
-        <v>13.00000000000005</v>
+        <v>13</v>
       </c>
       <c r="E262">
-        <f t="shared" ref="E262:E302" si="9">0.534838696 * SIN(D259*1.833)</f>
-        <v>-0.53482202797864142</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="263" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D263">
-        <f t="shared" si="8"/>
-        <v>13.05000000000005</v>
+        <v>13.05</v>
       </c>
       <c r="E263">
-        <f t="shared" si="9"/>
-        <v>-0.5329638679803208</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="264" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D264">
-        <f t="shared" si="8"/>
-        <v>13.100000000000051</v>
+        <v>13.1</v>
       </c>
       <c r="E264">
-        <f t="shared" si="9"/>
-        <v>-0.52663209213167639</v>
+        <v>-0.52300000000000002</v>
       </c>
     </row>
     <row r="265" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D265">
-        <f t="shared" si="8"/>
-        <v>13.150000000000052</v>
+        <v>13.15</v>
       </c>
       <c r="E265">
-        <f t="shared" si="9"/>
-        <v>-0.5158798483748086</v>
+        <v>-0.51200000000000001</v>
       </c>
     </row>
     <row r="266" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D266">
-        <f t="shared" si="8"/>
-        <v>13.200000000000053</v>
+        <v>13.2</v>
       </c>
       <c r="E266">
-        <f t="shared" si="9"/>
-        <v>-0.50079738937220963</v>
+        <v>-0.49399999999999999</v>
       </c>
     </row>
     <row r="267" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D267">
-        <f t="shared" si="8"/>
-        <v>13.250000000000053</v>
+        <v>13.25</v>
       </c>
       <c r="E267">
-        <f t="shared" si="9"/>
-        <v>-0.48151131493994503</v>
+        <v>-0.47299999999999998</v>
       </c>
     </row>
     <row r="268" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D268">
-        <f t="shared" si="8"/>
-        <v>13.300000000000054</v>
+        <v>13.3</v>
       </c>
       <c r="E268">
-        <f t="shared" si="9"/>
-        <v>-0.45818350938847968</v>
+        <v>-0.44900000000000001</v>
       </c>
     </row>
     <row r="269" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D269">
-        <f t="shared" si="8"/>
-        <v>13.350000000000055</v>
+        <v>13.35</v>
       </c>
       <c r="E269">
-        <f t="shared" si="9"/>
-        <v>-0.43100978269094326</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="270" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D270">
-        <f t="shared" si="8"/>
-        <v>13.400000000000055</v>
+        <v>13.4</v>
       </c>
       <c r="E270">
-        <f t="shared" si="9"/>
-        <v>-0.40021822688465747</v>
+        <v>-0.38900000000000001</v>
       </c>
     </row>
     <row r="271" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D271">
-        <f t="shared" si="8"/>
-        <v>13.450000000000056</v>
+        <v>13.45</v>
       </c>
       <c r="E271">
-        <f t="shared" si="9"/>
-        <v>-0.36606730150203509</v>
+        <v>-0.35299999999999998</v>
       </c>
     </row>
     <row r="272" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D272">
-        <f t="shared" si="8"/>
-        <v>13.500000000000057</v>
+        <v>13.5</v>
       </c>
       <c r="E272">
-        <f t="shared" si="9"/>
-        <v>-0.32884366410144661</v>
+        <v>-0.316</v>
       </c>
     </row>
     <row r="273" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D273">
-        <f t="shared" si="8"/>
-        <v>13.550000000000058</v>
+        <v>13.55</v>
       </c>
       <c r="E273">
-        <f t="shared" si="9"/>
-        <v>-0.28885976410824055</v>
+        <v>-0.27900000000000003</v>
       </c>
     </row>
     <row r="274" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D274">
-        <f t="shared" si="8"/>
-        <v>13.600000000000058</v>
+        <v>13.6</v>
       </c>
       <c r="E274">
-        <f t="shared" si="9"/>
-        <v>-0.24645122016284235</v>
+        <v>-0.23799999999999999</v>
       </c>
     </row>
     <row r="275" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D275">
-        <f t="shared" si="8"/>
-        <v>13.650000000000059</v>
+        <v>13.65</v>
       </c>
       <c r="E275">
-        <f t="shared" si="9"/>
-        <v>-0.20197400299006341</v>
+        <v>-0.19700000000000001</v>
       </c>
     </row>
     <row r="276" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D276">
-        <f t="shared" si="8"/>
-        <v>13.70000000000006</v>
+        <v>13.7</v>
       </c>
       <c r="E276">
-        <f t="shared" si="9"/>
-        <v>-0.15580144743617849</v>
+        <v>-0.154</v>
       </c>
     </row>
     <row r="277" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D277">
-        <f t="shared" si="8"/>
-        <v>13.75000000000006</v>
+        <v>13.75</v>
       </c>
       <c r="E277">
-        <f t="shared" si="9"/>
-        <v>-0.10832111875426677</v>
+        <v>-0.113</v>
       </c>
     </row>
     <row r="278" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D278">
-        <f t="shared" si="8"/>
-        <v>13.800000000000061</v>
+        <v>13.8</v>
       </c>
       <c r="E278">
-        <f t="shared" si="9"/>
-        <v>-5.9931559441730356E-2</v>
+        <v>-6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="279" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D279">
-        <f t="shared" si="8"/>
-        <v>13.850000000000062</v>
+        <v>13.85</v>
       </c>
       <c r="E279">
-        <f t="shared" si="9"/>
-        <v>-1.1038943936530897E-2</v>
+        <v>-2.3E-2</v>
       </c>
     </row>
     <row r="280" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D280">
-        <f t="shared" si="8"/>
-        <v>13.900000000000063</v>
+        <v>13.9</v>
       </c>
       <c r="E280">
-        <f t="shared" si="9"/>
-        <v>3.7946330747896682E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="281" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D281">
-        <f t="shared" si="8"/>
-        <v>13.950000000000063</v>
+        <v>13.95</v>
       </c>
       <c r="E281">
-        <f t="shared" si="9"/>
-        <v>8.6613089831372322E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="282" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D282">
-        <f t="shared" si="8"/>
-        <v>14.000000000000064</v>
+        <v>14</v>
       </c>
       <c r="E282">
-        <f t="shared" si="9"/>
-        <v>0.13455283210415214</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="283" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D283">
-        <f t="shared" si="8"/>
-        <v>14.050000000000065</v>
+        <v>14.05</v>
       </c>
       <c r="E283">
-        <f t="shared" si="9"/>
-        <v>0.1813631588225752</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="284" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D284">
-        <f t="shared" si="8"/>
-        <v>14.100000000000065</v>
+        <v>14.1</v>
       </c>
       <c r="E284">
-        <f t="shared" si="9"/>
-        <v>0.2266511513815587</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="285" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D285">
-        <f t="shared" si="8"/>
-        <v>14.150000000000066</v>
+        <v>14.15</v>
       </c>
       <c r="E285">
-        <f t="shared" si="9"/>
-        <v>0.27003666941228366</v>
+        <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="286" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D286">
-        <f t="shared" si="8"/>
-        <v>14.200000000000067</v>
+        <v>14.2</v>
       </c>
       <c r="E286">
-        <f t="shared" si="9"/>
-        <v>0.31115554162135206</v>
+        <v>0.27600000000000002</v>
       </c>
     </row>
     <row r="287" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D287">
-        <f t="shared" si="8"/>
-        <v>14.250000000000068</v>
+        <v>14.25</v>
       </c>
       <c r="E287">
-        <f t="shared" si="9"/>
-        <v>0.34966262258800784</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="288" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D288">
-        <f t="shared" si="8"/>
-        <v>14.300000000000068</v>
+        <v>14.3</v>
       </c>
       <c r="E288">
-        <f t="shared" si="9"/>
-        <v>0.38523468986113996</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="289" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D289">
-        <f t="shared" si="8"/>
-        <v>14.350000000000069</v>
+        <v>14.35</v>
       </c>
       <c r="E289">
-        <f t="shared" si="9"/>
-        <v>0.41757315703828762</v>
+        <v>0.38500000000000001</v>
       </c>
     </row>
     <row r="290" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D290">
-        <f t="shared" si="8"/>
-        <v>14.40000000000007</v>
+        <v>14.4</v>
       </c>
       <c r="E290">
-        <f t="shared" si="9"/>
-        <v>0.44640658005348227</v>
+        <v>0.41899999999999998</v>
       </c>
     </row>
     <row r="291" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D291">
-        <f t="shared" si="8"/>
-        <v>14.45000000000007</v>
+        <v>14.45</v>
       </c>
       <c r="E291">
-        <f t="shared" si="9"/>
-        <v>0.47149293563653744</v>
+        <v>0.44800000000000001</v>
       </c>
     </row>
     <row r="292" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D292">
-        <f t="shared" si="8"/>
-        <v>14.500000000000071</v>
+        <v>14.5</v>
       </c>
       <c r="E292">
-        <f t="shared" si="9"/>
-        <v>0.4926216528187522</v>
+        <v>0.47199999999999998</v>
       </c>
     </row>
     <row r="293" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D293">
-        <f t="shared" si="8"/>
-        <v>14.550000000000072</v>
+        <v>14.55</v>
       </c>
       <c r="E293">
-        <f t="shared" si="9"/>
-        <v>0.50961538043288579</v>
+        <v>0.49299999999999999</v>
       </c>
     </row>
     <row r="294" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D294">
-        <f t="shared" si="8"/>
-        <v>14.600000000000072</v>
+        <v>14.6</v>
       </c>
       <c r="E294">
-        <f t="shared" si="9"/>
-        <v>0.52233147577128403</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="295" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D295">
-        <f t="shared" si="8"/>
-        <v>14.650000000000073</v>
+        <v>14.65</v>
       </c>
       <c r="E295">
-        <f t="shared" si="9"/>
-        <v>0.53066320190659066</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="296" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D296">
-        <f t="shared" si="8"/>
-        <v>14.700000000000074</v>
+        <v>14.7</v>
       </c>
       <c r="E296">
-        <f t="shared" si="9"/>
-        <v>0.53454062362492205</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="297" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D297">
-        <f t="shared" si="8"/>
-        <v>14.750000000000075</v>
+        <v>14.75</v>
       </c>
       <c r="E297">
-        <f t="shared" si="9"/>
-        <v>0.53393119445117976</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="298" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D298">
-        <f t="shared" si="8"/>
-        <v>14.800000000000075</v>
+        <v>14.8</v>
       </c>
       <c r="E298">
-        <f t="shared" si="9"/>
-        <v>0.52884002983910305</v>
+        <v>0.52600000000000002</v>
       </c>
     </row>
     <row r="299" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D299">
-        <f t="shared" si="8"/>
-        <v>14.850000000000076</v>
+        <v>14.85</v>
       </c>
       <c r="E299">
-        <f t="shared" si="9"/>
-        <v>0.51930986423294523</v>
+        <v>0.51400000000000001</v>
       </c>
     </row>
     <row r="300" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D300">
-        <f t="shared" si="8"/>
-        <v>14.900000000000077</v>
+        <v>14.9</v>
       </c>
       <c r="E300">
-        <f t="shared" si="9"/>
-        <v>0.50542069236119214</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="301" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D301">
-        <f t="shared" si="8"/>
-        <v>14.950000000000077</v>
+        <v>14.95</v>
       </c>
       <c r="E301">
-        <f t="shared" si="9"/>
-        <v>0.48728909777324803</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="302" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D302">
-        <f t="shared" si="8"/>
-        <v>15.000000000000078</v>
+        <v>15</v>
       </c>
       <c r="E302">
-        <f t="shared" si="9"/>
-        <v>0.46506727425524652</v>
+        <v>0.45500000000000002</v>
+      </c>
+    </row>
+    <row r="303" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E303">
+        <v>0.42799999999999999</v>
+      </c>
+    </row>
+    <row r="304" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E304">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E305">
+        <v>0.36499999999999999</v>
       </c>
     </row>
   </sheetData>
